--- a/Outputs/TT/PCS.xlsx
+++ b/Outputs/TT/PCS.xlsx
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0448765159279</v>
+        <v>0.0245859441514</v>
       </c>
       <c r="M2">
-        <v>0.9461790532600001</v>
+        <v>0.9451882180660001</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1074,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R2">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T2">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U2">
-        <v>0.19821111383758</v>
+        <v>0.24244354055435</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1124,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.04366179571000001</v>
+        <v>0.00659951976534</v>
       </c>
       <c r="M3">
-        <v>0.977593851842</v>
+        <v>0.9772906700220001</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S3">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U3">
-        <v>0.3579078734178001</v>
+        <v>0.4380434773310851</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0448765159279</v>
+        <v>0.0245859441514</v>
       </c>
       <c r="M4">
-        <v>0.945484581823</v>
+        <v>0.944613822361</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1204,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S4">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T4">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U4">
-        <v>0.28195328371298</v>
+        <v>0.3471512718316</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1233,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0448765159279</v>
+        <v>0.0245859441514</v>
       </c>
       <c r="M5">
-        <v>0.945484581823</v>
+        <v>0.944613822361</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1245,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S5">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T5">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U5">
-        <v>0.19807221955018</v>
+        <v>0.2422999416281</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1295,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0448765159279</v>
+        <v>0.0245859441514</v>
       </c>
       <c r="M6">
-        <v>0.8258727527420001</v>
+        <v>0.824739855916</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1310,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S6">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T6">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U6">
-        <v>0.27863112566438</v>
+        <v>0.34293303992985</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0448765159279</v>
+        <v>0.0245859441514</v>
       </c>
       <c r="M7">
-        <v>0.966570427279</v>
+        <v>0.965894148495</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1351,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S7">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T7">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U7">
-        <v>0.20228938864138</v>
+        <v>0.2476200231616</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0448765159279</v>
+        <v>0.0245859441514</v>
       </c>
       <c r="M8">
-        <v>0.802998957115</v>
+        <v>0.802034500596</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S8">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T8">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U8">
-        <v>0.30727636395298</v>
+        <v>0.37878169786735</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.0448765159279</v>
+        <v>0.0245859441514</v>
       </c>
       <c r="M9">
-        <v>0.883851945993</v>
+        <v>0.883169047492</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1478,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S9">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T9">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U9">
-        <v>0.3257213487917799</v>
+        <v>0.40190831842035</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.0482881026982</v>
+        <v>0.0272799069657</v>
       </c>
       <c r="M10">
-        <v>0.681926590512</v>
+        <v>0.680929405467</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1543,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S10">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T10">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U10">
-        <v>0.21040961005104</v>
+        <v>0.257510667369425</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.0516996894685</v>
+        <v>0.0299738697801</v>
       </c>
       <c r="M11">
-        <v>0.633757192093</v>
+        <v>0.632895435176</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1608,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S11">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T11">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U11">
-        <v>0.14055164409182</v>
+        <v>0.170042660963425</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.282372187751</v>
+        <v>0.283126696816</v>
       </c>
       <c r="M12">
-        <v>0.639408794224</v>
+        <v>0.6387811771999999</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1673,19 +1673,19 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S12">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U12">
-        <v>0.2782166344598</v>
+        <v>0.347802516085</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1702,10 +1702,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.04366179571000001</v>
+        <v>0.00659951976534</v>
       </c>
       <c r="M13">
-        <v>0.9747906774889999</v>
+        <v>0.9747318703899999</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1714,19 +1714,19 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R13">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S13">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T13">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U13">
-        <v>0.2036904946398</v>
+        <v>0.245332847538835</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.04366179571000001</v>
+        <v>0.00659951976534</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1755,19 +1755,19 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R14">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S14">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T14">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U14">
-        <v>0.208732359142</v>
+        <v>0.251649879941335</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1784,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.04366179571000001</v>
+        <v>0.00659951976534</v>
       </c>
       <c r="M15">
-        <v>0.9677768473489999</v>
+        <v>0.9676552483040001</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S15">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T15">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U15">
-        <v>0.2022877286118</v>
+        <v>0.243563692017335</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.0981387293018</v>
+        <v>0.150970188118</v>
       </c>
       <c r="M16">
-        <v>0.9837639180810001</v>
+        <v>0.983924307854</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1861,19 +1861,19 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S16">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T16">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U16">
-        <v>0.22798285950612</v>
+        <v>0.29822653652995</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1911,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.04366179571000001</v>
+        <v>0.00659951976534</v>
       </c>
       <c r="M17">
-        <v>0.9034676149959999</v>
+        <v>0.903215889926</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1926,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S17">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T17">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U17">
-        <v>0.26682220452</v>
+        <v>0.324199255396335</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1955,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.0476807425893</v>
+        <v>0.0182866947727</v>
       </c>
       <c r="M18">
-        <v>0.7936774004449999</v>
+        <v>0.793001399174</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1967,19 +1967,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S18">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T18">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U18">
-        <v>0.16827162860686</v>
+        <v>0.202822023486675</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.0516996894685</v>
+        <v>0.0299738697801</v>
       </c>
       <c r="M19">
-        <v>0.434624457896</v>
+        <v>0.433158616032</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2032,19 +2032,19 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S19">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T19">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U19">
-        <v>0.1882287198109</v>
+        <v>0.229487984375525</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -2082,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.0516996894685</v>
+        <v>0.0299738697801</v>
       </c>
       <c r="M20">
-        <v>0.470595159288</v>
+        <v>0.4691955909660001</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2097,19 +2097,19 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S20">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T20">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U20">
-        <v>0.12029969310376</v>
+        <v>0.1445932693771</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2147,13 +2147,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.0355424276115</v>
+        <v>0.01498693489</v>
       </c>
       <c r="M21">
-        <v>0.7258760630009999</v>
+        <v>0.725161851319</v>
       </c>
       <c r="N21">
-        <v>0.783952066609</v>
+        <v>0.887635039755</v>
       </c>
       <c r="O21">
         <v>0.387489922701</v>
@@ -2162,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S21">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T21">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U21">
-        <v>0.5433625093062999</v>
+        <v>0.50381843716625</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2212,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.0516996894685</v>
+        <v>0.0299738697801</v>
       </c>
       <c r="M22">
-        <v>0.550126587459</v>
+        <v>0.549026634415</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2227,19 +2227,19 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T22">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U22">
-        <v>0.13100340527248</v>
+        <v>0.1580478134075</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2277,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.0516996894685</v>
+        <v>0.0299738697801</v>
       </c>
       <c r="M23">
-        <v>0.383717559522</v>
+        <v>0.382240212402</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S23">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T23">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U23">
-        <v>0.2466884289833</v>
+        <v>0.302559744527025</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2342,10 +2342,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.207832076528</v>
+        <v>0.178454132173</v>
       </c>
       <c r="M24">
-        <v>0.52880135844</v>
+        <v>0.527811643772</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2357,19 +2357,19 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S24">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T24">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U24">
-        <v>0.2233066486514</v>
+        <v>0.2715413960585</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.0516996894685</v>
+        <v>0.0299738697801</v>
       </c>
       <c r="M25">
-        <v>0.457405965344</v>
+        <v>0.45604864529</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2398,19 +2398,19 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S25">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T25">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U25">
-        <v>0.1018211309625</v>
+        <v>0.121505628767525</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2427,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0.0516996894685</v>
+        <v>0.0299738697801</v>
       </c>
       <c r="M26">
-        <v>0.313757878071</v>
+        <v>0.312101635578</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2439,19 +2439,19 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S26">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T26">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U26">
-        <v>0.07309151350790001</v>
+        <v>0.08551887633952499</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2489,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0.363964463587</v>
+        <v>0.326934394567</v>
       </c>
       <c r="M27">
-        <v>0.57386389073</v>
+        <v>0.573274649016</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2504,19 +2504,19 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S27">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U27">
-        <v>0.2655980837968001</v>
+        <v>0.3225927770625</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2554,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0.0193851657545</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>0.473937771743</v>
+        <v>0.472845578418</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2569,19 +2569,19 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S28">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T28">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U28">
-        <v>0.1779572156967</v>
+        <v>0.217327179851</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2619,13 +2619,13 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0.0193851657545</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>0.484050659471</v>
+        <v>0.483014465738</v>
       </c>
       <c r="N29">
-        <v>0.807286062166</v>
+        <v>0.9082628042700001</v>
       </c>
       <c r="O29">
         <v>0.343172201936</v>
@@ -2634,19 +2634,19 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R29">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S29">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T29">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U29">
-        <v>0.4922360302987</v>
+        <v>0.433612367986</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0.0193851657545</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>0.574289382968</v>
+        <v>0.573515705769</v>
       </c>
       <c r="N30">
-        <v>0.8482423764300001</v>
+        <v>0.9300069447630001</v>
       </c>
       <c r="O30">
         <v>0.3662717043</v>
@@ -2699,19 +2699,19 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S30">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T30">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U30">
-        <v>0.5312862011765001</v>
+        <v>0.467448588708</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2749,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0.0241162280501</v>
+        <v>0.0114468550747</v>
       </c>
       <c r="M31">
-        <v>0.629477089067</v>
+        <v>0.628897572715</v>
       </c>
       <c r="N31">
-        <v>0.143124407884</v>
+        <v>0.173767965285</v>
       </c>
       <c r="O31">
         <v>0.5335110801990001</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S31">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T31">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U31">
-        <v>0.29467064261682</v>
+        <v>0.3369058683184251</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2814,13 +2814,13 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0.0193851657545</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>0.358654261518</v>
+        <v>0.357439480233</v>
       </c>
       <c r="N32">
-        <v>0.789010043853</v>
+        <v>0.828810188549</v>
       </c>
       <c r="O32">
         <v>0.224569640063</v>
@@ -2829,19 +2829,19 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S32">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T32">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U32">
-        <v>0.4361258310083</v>
+        <v>0.35270482721125</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0.0193851657545</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>0.533604197368</v>
+        <v>0.532879773498</v>
       </c>
       <c r="N33">
-        <v>0.757479731039</v>
+        <v>0.735005085456</v>
       </c>
       <c r="O33">
         <v>0.275439054078</v>
@@ -2894,19 +2894,19 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S33">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T33">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U33">
-        <v>0.4686775758557</v>
+        <v>0.385830978258</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2944,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0.0193851657545</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>0.5466040486829999</v>
+        <v>0.54591031268</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2959,19 +2959,19 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S34">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T34">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U34">
-        <v>0.1647845234647</v>
+        <v>0.2009609288915</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0.363964463587</v>
+        <v>0.326934394567</v>
       </c>
       <c r="M35">
-        <v>0.485621265445</v>
+        <v>0.485026468781</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3024,19 +3024,19 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R35">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S35">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T35">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U35">
-        <v>0.2673320881352</v>
+        <v>0.324758893748</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0.363964463587</v>
+        <v>0.326934394567</v>
       </c>
       <c r="M36">
-        <v>0.5643389059749999</v>
+        <v>0.5639021095210001</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3089,19 +3089,19 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S36">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T36">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U36">
-        <v>0.276854130951</v>
+        <v>0.33670094732025</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3139,13 +3139,13 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0.0311342884667</v>
+        <v>0.0542158886899</v>
       </c>
       <c r="M37">
-        <v>0.422746804004</v>
+        <v>0.421944451538</v>
       </c>
       <c r="N37">
-        <v>0.757479731039</v>
+        <v>0.735005085456</v>
       </c>
       <c r="O37">
         <v>0.319341563786</v>
@@ -3154,19 +3154,19 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S37">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T37">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U37">
-        <v>0.4576364236669401</v>
+        <v>0.382626747367475</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0.363964463587</v>
+        <v>0.326934394567</v>
       </c>
       <c r="M38">
-        <v>0.514047593005</v>
+        <v>0.5136354955770001</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3219,19 +3219,19 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S38">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T38">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U38">
-        <v>0.282282293078</v>
+        <v>0.3434923247355</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3269,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0.363964463587</v>
+        <v>0.326934394567</v>
       </c>
       <c r="M39">
-        <v>0.565045974959</v>
+        <v>0.564726843738</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3284,19 +3284,19 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S39">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T39">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U39">
-        <v>0.2634129379962</v>
+        <v>0.319928872435</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -3334,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0.0288472903458</v>
+        <v>0.0228937101494</v>
       </c>
       <c r="M40">
-        <v>0.7021498649429999</v>
+        <v>0.701765307202</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3349,19 +3349,19 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S40">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T40">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U40">
-        <v>0.23709376827456</v>
+        <v>0.29478267585885</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>0.406965393725</v>
+        <v>0.404618676695</v>
       </c>
       <c r="M41">
-        <v>0.565045974959</v>
+        <v>0.5649238444100001</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3414,19 +3414,19 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S41">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T41">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U41">
-        <v>0.2825965465864</v>
+        <v>0.35262847133825</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3464,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>0.449966323863</v>
+        <v>0.4823029588229999</v>
       </c>
       <c r="M42">
-        <v>0.483438879731</v>
+        <v>0.483456049969</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3479,19 +3479,19 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R42">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S42">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T42">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U42">
-        <v>0.2699561611138</v>
+        <v>0.34553365269175</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3529,10 +3529,10 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0.449966323863</v>
+        <v>0.4823029588229999</v>
       </c>
       <c r="M43">
-        <v>0.565045974959</v>
+        <v>0.565266687842</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3544,19 +3544,19 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S43">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T43">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U43">
-        <v>0.3212346512672</v>
+        <v>0.40968265104475</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3594,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0.0288472903458</v>
+        <v>0.0228937101494</v>
       </c>
       <c r="M44">
-        <v>0.863609859437</v>
+        <v>0.863674967163</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3609,19 +3609,19 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S44">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T44">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U44">
-        <v>0.26167116681396</v>
+        <v>0.32561684039985</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3659,13 +3659,13 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0.0288472903458</v>
+        <v>0.0228937101494</v>
       </c>
       <c r="M45">
-        <v>0.7858299476999999</v>
+        <v>0.785703754015</v>
       </c>
       <c r="N45">
-        <v>0.143124407884</v>
+        <v>0.173767965285</v>
       </c>
       <c r="O45">
         <v>0.446748391584</v>
@@ -3674,19 +3674,19 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S45">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T45">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U45">
-        <v>0.30953488907956</v>
+        <v>0.35727845525835</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3724,13 +3724,13 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0.18173382381</v>
+        <v>0.18347541063</v>
       </c>
       <c r="M46">
-        <v>0.417968993362</v>
+        <v>0.418833203758</v>
       </c>
       <c r="N46">
-        <v>0.239802660994</v>
+        <v>0.264928741411</v>
       </c>
       <c r="O46">
         <v>0.573551365404</v>
@@ -3739,19 +3739,19 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S46">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T46">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U46">
-        <v>0.3305719009128</v>
+        <v>0.36019718030075</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3789,13 +3789,13 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0.0288472903458</v>
+        <v>0.0228937101494</v>
       </c>
       <c r="M47">
-        <v>0.954516573944</v>
+        <v>0.954911254707</v>
       </c>
       <c r="N47">
-        <v>0.128669335232</v>
+        <v>0.129761037579</v>
       </c>
       <c r="O47">
         <v>0.420586524682</v>
@@ -3804,19 +3804,19 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S47">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T47">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U47">
-        <v>0.33225781188716</v>
+        <v>0.38203813177935</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3854,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>0.449966323863</v>
+        <v>0.4823029588229999</v>
       </c>
       <c r="M48">
-        <v>0.565045974959</v>
+        <v>0.565529592899</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S48">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T48">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U48">
-        <v>0.2499682048522</v>
+        <v>0.32066531929025</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3919,10 +3919,10 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0.449966323863</v>
+        <v>0.4823029588229999</v>
       </c>
       <c r="M49">
-        <v>0.425468157533</v>
+        <v>0.425672857124</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3934,19 +3934,19 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S49">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T49">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U49">
-        <v>0.2475259889974</v>
+        <v>0.3175428198844999</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3984,13 +3984,13 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0.0428834111789</v>
+        <v>0.10843177738</v>
       </c>
       <c r="M50">
-        <v>0.3975525940470001</v>
+        <v>0.396832146114</v>
       </c>
       <c r="N50">
-        <v>0.005456133765850001</v>
+        <v>0.0338642942435</v>
       </c>
       <c r="O50">
         <v>0.7475221700570001</v>
@@ -3999,19 +3999,19 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S50">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T50">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U50">
-        <v>0.23977408856292</v>
+        <v>0.321662596948625</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -4049,13 +4049,13 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>0.05968909052490001</v>
+        <v>0.138161335026</v>
       </c>
       <c r="M51">
-        <v>0.509983220777</v>
+        <v>0.50967265204</v>
       </c>
       <c r="N51">
-        <v>0.0090598038482</v>
+        <v>0.0557940982649</v>
       </c>
       <c r="O51">
         <v>0.433096521516</v>
@@ -4064,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S51">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T51">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U51">
-        <v>0.20417768810286</v>
+        <v>0.284181151711725</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -4114,10 +4114,10 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0.328451586141</v>
+        <v>0.356896660125</v>
       </c>
       <c r="M52">
-        <v>0.341721467077</v>
+        <v>0.342121126122</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -4129,19 +4129,19 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S52">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T52">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U52">
-        <v>0.1881950910952</v>
+        <v>0.24245504712625</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -4179,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0.206936848418</v>
+        <v>0.231490361428</v>
       </c>
       <c r="M53">
-        <v>0.403864012548</v>
+        <v>0.404671172211</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -4194,19 +4194,19 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S53">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T53">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U53">
-        <v>0.1891720284244</v>
+        <v>0.24280520369875</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -4244,13 +4244,13 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0.432047574939</v>
+        <v>0.421780012442</v>
       </c>
       <c r="M54">
-        <v>0.470350005893</v>
+        <v>0.471585694564</v>
       </c>
       <c r="N54">
-        <v>0.00286399609594</v>
+        <v>0.0105571058901</v>
       </c>
       <c r="O54">
         <v>0.486749107572</v>
@@ -4259,19 +4259,19 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S54">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T54">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U54">
-        <v>0.278974936119176</v>
+        <v>0.347667980117025</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -4309,10 +4309,10 @@
         <v>0</v>
       </c>
       <c r="L55">
-        <v>0.0428834111789</v>
+        <v>0.10843177738</v>
       </c>
       <c r="M55">
-        <v>0.549762471003</v>
+        <v>0.549410830361</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -4324,19 +4324,19 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R55">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S55">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T55">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U55">
-        <v>0.18707029971938</v>
+        <v>0.250137056039</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -4374,13 +4374,13 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0.0606908487522</v>
+        <v>0.117473907417</v>
       </c>
       <c r="M56">
-        <v>0.524435062847</v>
+        <v>0.524202497481</v>
       </c>
       <c r="N56">
-        <v>0.000619926187856</v>
+        <v>0.003866350221050001</v>
       </c>
       <c r="O56">
         <v>0.524991155961</v>
@@ -4389,19 +4389,19 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R56">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S56">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T56">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U56">
-        <v>0.2222713839871824</v>
+        <v>0.2926334777700125</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -4439,13 +4439,13 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0.0288472903458</v>
+        <v>0.0228937101494</v>
       </c>
       <c r="M57">
-        <v>0.9560770932780001</v>
+        <v>0.956560502206</v>
       </c>
       <c r="N57">
-        <v>0.128669335232</v>
+        <v>0.129761037579</v>
       </c>
       <c r="O57">
         <v>0.616095751463</v>
@@ -4454,19 +4454,19 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S57">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T57">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U57">
-        <v>0.37167176111016</v>
+        <v>0.43132775034935</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4504,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0.0288472903458</v>
+        <v>0.0228937101494</v>
       </c>
       <c r="M58">
-        <v>0.907273596692</v>
+        <v>0.9079316790690001</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4519,19 +4519,19 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S58">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T58">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U58">
-        <v>0.27006863255256</v>
+        <v>0.33626191623585</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4569,13 +4569,13 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0.315831077502</v>
+        <v>0.263918154721</v>
       </c>
       <c r="M59">
-        <v>0.493922120368</v>
+        <v>0.495085909405</v>
       </c>
       <c r="N59">
-        <v>0.00277811772129</v>
+        <v>0.0102405457187</v>
       </c>
       <c r="O59">
         <v>0.358778183504</v>
@@ -4584,19 +4584,19 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S59">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T59">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U59">
-        <v>0.234817523363316</v>
+        <v>0.282005698337175</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4634,10 +4634,10 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0.513758714906</v>
+        <v>0.47832325621</v>
       </c>
       <c r="M60">
-        <v>0.535795465596</v>
+        <v>0.537236715317</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4649,19 +4649,19 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S60">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T60">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U60">
-        <v>0.2938313136986</v>
+        <v>0.3587905898795</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4699,13 +4699,13 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0.513758714906</v>
+        <v>0.47832325621</v>
       </c>
       <c r="M61">
-        <v>0.437057642961</v>
+        <v>0.4382875970489999</v>
       </c>
       <c r="N61">
-        <v>0.0008846599493839999</v>
+        <v>0.00547757522887</v>
       </c>
       <c r="O61">
         <v>0.431608732078</v>
@@ -4714,19 +4714,19 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R61">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S61">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T61">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U61">
-        <v>0.2768388819687536</v>
+        <v>0.3384242901414675</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4764,13 +4764,13 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0.513758714906</v>
+        <v>0.47832325621</v>
       </c>
       <c r="M62">
-        <v>0.4458998046</v>
+        <v>0.447119889654</v>
       </c>
       <c r="N62">
-        <v>0.00028949131902</v>
+        <v>0.00186289714334</v>
       </c>
       <c r="O62">
         <v>0.60082041068</v>
@@ -4779,19 +4779,19 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S62">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T62">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U62">
-        <v>0.312211582564808</v>
+        <v>0.382031613421835</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4829,10 +4829,10 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0.328451586141</v>
+        <v>0.356896660125</v>
       </c>
       <c r="M63">
-        <v>0.453383721018</v>
+        <v>0.453861426049</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4844,19 +4844,19 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S63">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T63">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U63">
-        <v>0.2112021625736</v>
+        <v>0.27123339797075</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4894,10 +4894,10 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>0.328451586141</v>
+        <v>0.356896660125</v>
       </c>
       <c r="M64">
-        <v>0.481299284503</v>
+        <v>0.481903240724</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4909,19 +4909,19 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R64">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S64">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T64">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U64">
-        <v>0.2068756943282</v>
+        <v>0.2658568754615001</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4938,31 +4938,31 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>0.315831077502</v>
+        <v>0.263918154721</v>
       </c>
       <c r="M65">
-        <v>0.410175429912</v>
+        <v>0.411143858687</v>
       </c>
       <c r="N65">
-        <v>0.485761709594</v>
+        <v>0.5178910181090001</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S65">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T65">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U65">
-        <v>0.3395059853204</v>
+        <v>0.29823825787925</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -5000,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>0.315831077502</v>
+        <v>0.263918154721</v>
       </c>
       <c r="M66">
-        <v>0.536112741817</v>
+        <v>0.537414161721</v>
       </c>
       <c r="N66">
-        <v>0.485761709594</v>
+        <v>0.5178910181090001</v>
       </c>
       <c r="O66">
         <v>0.350373848026</v>
@@ -5015,19 +5015,19 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R66">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S66">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T66">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U66">
-        <v>0.4347682173066</v>
+        <v>0.41739929564425</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -5065,10 +5065,10 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>0.315831077502</v>
+        <v>0.263918154721</v>
       </c>
       <c r="M67">
-        <v>0.495205194795</v>
+        <v>0.496411187536</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -5080,19 +5080,19 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R67">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S67">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T67">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U67">
-        <v>0.2525190842860001</v>
+        <v>0.3029721228475</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -5130,13 +5130,13 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>0.315831077502</v>
+        <v>0.263918154721</v>
       </c>
       <c r="M68">
-        <v>0.467831950792</v>
+        <v>0.468934247121</v>
       </c>
       <c r="N68">
-        <v>0.4844921376199999</v>
+        <v>0.51321119128</v>
       </c>
       <c r="O68">
         <v>0.6657755173009999</v>
@@ -5145,19 +5145,19 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S68">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T68">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U68">
-        <v>0.483684564167</v>
+        <v>0.4779597776057499</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -5195,13 +5195,13 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>0.315831077502</v>
+        <v>0.263918154721</v>
       </c>
       <c r="M69">
-        <v>0.5795590955359999</v>
+        <v>0.5810010756189999</v>
       </c>
       <c r="N69">
-        <v>0.487401444782</v>
+        <v>0.5239353203480001</v>
       </c>
       <c r="O69">
         <v>0.538862806468</v>
@@ -5210,19 +5210,19 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S69">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T69">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U69">
-        <v>0.4818111738140001</v>
+        <v>0.4769293392889999</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -5260,13 +5260,13 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>0.315831077502</v>
+        <v>0.263918154721</v>
       </c>
       <c r="M70">
-        <v>0.395962656975</v>
+        <v>0.397001825274</v>
       </c>
       <c r="N70">
-        <v>0.0521730181975</v>
+        <v>0.155826990353</v>
       </c>
       <c r="O70">
         <v>0.348156842288</v>
@@ -5275,19 +5275,19 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S70">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T70">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U70">
-        <v>0.232859322632</v>
+        <v>0.291225953159</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -5325,13 +5325,13 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <v>0.414794896204</v>
+        <v>0.371120705465</v>
       </c>
       <c r="M71">
-        <v>0.578643820528</v>
+        <v>0.5801757595880001</v>
       </c>
       <c r="N71">
-        <v>0.641085656262</v>
+        <v>0.669378378939</v>
       </c>
       <c r="O71">
         <v>0.559449288323</v>
@@ -5340,19 +5340,19 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S71">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T71">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U71">
-        <v>0.5670118635158</v>
+        <v>0.54503103307875</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -5390,13 +5390,13 @@
         <v>0</v>
       </c>
       <c r="L72">
-        <v>0.513758714906</v>
+        <v>0.47832325621</v>
       </c>
       <c r="M72">
-        <v>0.418232015659</v>
+        <v>0.419465787445</v>
       </c>
       <c r="N72">
-        <v>0.6482341378249999</v>
+        <v>0.6905007920730001</v>
       </c>
       <c r="O72">
         <v>0.330019899921</v>
@@ -5405,19 +5405,19 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S72">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T72">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U72">
-        <v>0.5116957812271999</v>
+        <v>0.4795774339122501</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -5455,13 +5455,13 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>0.0774965280982</v>
+        <v>0.147203465063</v>
       </c>
       <c r="M73">
-        <v>0.53190157651</v>
+        <v>0.531893625841</v>
       </c>
       <c r="N73">
-        <v>0.0043887527005</v>
+        <v>0.0267886699559</v>
       </c>
       <c r="O73">
         <v>0.265345157364</v>
@@ -5470,19 +5470,19 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S73">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T73">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U73">
-        <v>0.17670415347464</v>
+        <v>0.242807729555975</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -5520,13 +5520,13 @@
         <v>0</v>
       </c>
       <c r="L74">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M74">
-        <v>0.580836770773</v>
+        <v>0.5813704634579999</v>
       </c>
       <c r="N74">
-        <v>0.0166324477123</v>
+        <v>0.104416518793</v>
       </c>
       <c r="O74">
         <v>0.5731549792580001</v>
@@ -5535,19 +5535,19 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S74">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T74">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U74">
-        <v>0.25275028306532</v>
+        <v>0.3567082135455</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5585,10 +5585,10 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>0.206936848418</v>
+        <v>0.231490361428</v>
       </c>
       <c r="M75">
-        <v>0.358012129653</v>
+        <v>0.358563494818</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -5600,19 +5600,19 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S75">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T75">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U75">
-        <v>0.193323650596</v>
+        <v>0.24793078278875</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5647,10 +5647,10 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>0.206936848418</v>
+        <v>0.231490361428</v>
       </c>
       <c r="M76">
-        <v>0.3975525940470001</v>
+        <v>0.398060237777</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -5662,19 +5662,19 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S76">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T76">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U76">
-        <v>0.159152105151</v>
+        <v>0.20520542062375</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5712,13 +5712,13 @@
         <v>0</v>
       </c>
       <c r="L77">
-        <v>0.513758714906</v>
+        <v>0.47832325621</v>
       </c>
       <c r="M77">
-        <v>0.346037160614</v>
+        <v>0.347102519705</v>
       </c>
       <c r="N77">
-        <v>0.00502968581244</v>
+        <v>0.030903250999</v>
       </c>
       <c r="O77">
         <v>0.293653277691</v>
@@ -5727,19 +5727,19 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S77">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T77">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U77">
-        <v>0.232701704967176</v>
+        <v>0.28749557615125</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5777,10 +5777,10 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>0.206936848418</v>
+        <v>0.231490361428</v>
       </c>
       <c r="M78">
-        <v>0.410108833085</v>
+        <v>0.410955443412</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -5792,19 +5792,19 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R78">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S78">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T78">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U78">
-        <v>0.2002566410824</v>
+        <v>0.25667083218725</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5842,10 +5842,10 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>0.206936848418</v>
+        <v>0.231490361428</v>
       </c>
       <c r="M79">
-        <v>0.3975525940470001</v>
+        <v>0.398060237777</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -5857,19 +5857,19 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S79">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T79">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U79">
-        <v>0.320897888493</v>
+        <v>0.40738764980125</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5907,10 +5907,10 @@
         <v>0</v>
       </c>
       <c r="L80">
-        <v>0.357349618187</v>
+        <v>0.340515888954</v>
       </c>
       <c r="M80">
-        <v>0.410837186665</v>
+        <v>0.411604441927</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -5922,19 +5922,19 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S80">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T80">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U80">
-        <v>0.1952756044866</v>
+        <v>0.2400778871155</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5972,10 +5972,10 @@
         <v>0</v>
       </c>
       <c r="L81">
-        <v>0.343510104625</v>
+        <v>0.314983310876</v>
       </c>
       <c r="M81">
-        <v>0.340670985151</v>
+        <v>0.341591138908</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5987,19 +5987,19 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S81">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T81">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U81">
-        <v>0.2170135784142</v>
+        <v>0.26436531301975</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -6037,10 +6037,10 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>0.206936848418</v>
+        <v>0.231490361428</v>
       </c>
       <c r="M82">
-        <v>0.34305836373</v>
+        <v>0.343361711677</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -6052,19 +6052,19 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S82">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T82">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U82">
-        <v>0.2623551544102</v>
+        <v>0.334158158252</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -6102,10 +6102,10 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>0.206936848418</v>
+        <v>0.231490361428</v>
       </c>
       <c r="M83">
-        <v>0.3975525940470001</v>
+        <v>0.398157062183</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -6117,19 +6117,19 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S83">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T83">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U83">
-        <v>0.286886412228</v>
+        <v>0.3648975105715</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -6167,13 +6167,13 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>0.513758714906</v>
+        <v>0.47832325621</v>
       </c>
       <c r="M84">
-        <v>0.365872213798</v>
+        <v>0.366955086898</v>
       </c>
       <c r="N84">
-        <v>1.9011012527e-05</v>
+        <v>0.000115449966135</v>
       </c>
       <c r="O84">
         <v>0.222483046427</v>
@@ -6182,19 +6182,19 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S84">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T84">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U84">
-        <v>0.2204303994312108</v>
+        <v>0.2669692098752837</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -6232,13 +6232,13 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>0.513758714906</v>
+        <v>0.47832325621</v>
       </c>
       <c r="M85">
-        <v>0.321532482211</v>
+        <v>0.322562805219</v>
       </c>
       <c r="N85">
-        <v>0.0006647106530360001</v>
+        <v>0.004222822885550001</v>
       </c>
       <c r="O85">
         <v>0.390627716919</v>
@@ -6247,19 +6247,19 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S85">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U85">
-        <v>0.2454496670684144</v>
+        <v>0.2989341503083875</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -6294,13 +6294,13 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0.513758714906</v>
+        <v>0.47832325621</v>
       </c>
       <c r="M86">
-        <v>0.374769027859</v>
+        <v>0.375843898768</v>
       </c>
       <c r="N86">
-        <v>0.000318999847902</v>
+        <v>0.00204209636564</v>
       </c>
       <c r="O86">
         <v>0.305164319249</v>
@@ -6309,19 +6309,19 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S86">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T86">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U86">
-        <v>0.2388660123419608</v>
+        <v>0.29034339264816</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -6359,13 +6359,13 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>0.513758714906</v>
+        <v>0.47832325621</v>
       </c>
       <c r="M87">
-        <v>0.292590346642</v>
+        <v>0.293494231385</v>
       </c>
       <c r="N87">
-        <v>0.000321113618245</v>
+        <v>0.00205704032301</v>
       </c>
       <c r="O87">
         <v>0.355938097722</v>
@@ -6374,19 +6374,19 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S87">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T87">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U87">
-        <v>0.232585877301298</v>
+        <v>0.2824531564100026</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -6424,13 +6424,13 @@
         <v>0</v>
       </c>
       <c r="L88">
-        <v>0.513758714906</v>
+        <v>0.47832325621</v>
       </c>
       <c r="M88">
-        <v>0.385692963269</v>
+        <v>0.386800827311</v>
       </c>
       <c r="N88">
-        <v>0.023079572547</v>
+        <v>0.068195778639</v>
       </c>
       <c r="O88">
         <v>0.37947023706</v>
@@ -6439,19 +6439,19 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S88">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T88">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U88">
-        <v>0.2650162120658</v>
+        <v>0.328197524805</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -6489,10 +6489,10 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>0.26138396296</v>
+        <v>0.247704258074</v>
       </c>
       <c r="M89">
-        <v>0.4107014058739999</v>
+        <v>0.41170837979</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -6504,19 +6504,19 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S89">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T89">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U89">
-        <v>0.2099395915898</v>
+        <v>0.25925630674475</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -6554,10 +6554,10 @@
         <v>0</v>
       </c>
       <c r="L90">
-        <v>0.513758714906</v>
+        <v>0.47832325621</v>
       </c>
       <c r="M90">
-        <v>0.352610677943</v>
+        <v>0.353712051532</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -6569,19 +6569,19 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S90">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T90">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U90">
-        <v>0.2386451183542</v>
+        <v>0.2897228766660001</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -6619,13 +6619,13 @@
         <v>0</v>
       </c>
       <c r="L91">
-        <v>0.513758714906</v>
+        <v>0.47832325621</v>
       </c>
       <c r="M91">
-        <v>0.263846465331</v>
+        <v>0.264734181234</v>
       </c>
       <c r="N91">
-        <v>0.0006647106530360001</v>
+        <v>0.004222822885550001</v>
       </c>
       <c r="O91">
         <v>0.375934620066</v>
@@ -6634,19 +6634,19 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S91">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T91">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U91">
-        <v>0.2309738443218144</v>
+        <v>0.2808037200988875</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6684,13 +6684,13 @@
         <v>0</v>
       </c>
       <c r="L92">
-        <v>0.513758714906</v>
+        <v>0.47832325621</v>
       </c>
       <c r="M92">
-        <v>0.243738021238</v>
+        <v>0.244548661939</v>
       </c>
       <c r="N92">
-        <v>0.8891126216740001</v>
+        <v>0.872055654118</v>
       </c>
       <c r="O92">
         <v>0.333494795936</v>
@@ -6699,19 +6699,19 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S92">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T92">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U92">
-        <v>0.5738433550856001</v>
+        <v>0.48210559205075</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6749,13 +6749,13 @@
         <v>0</v>
       </c>
       <c r="L93">
-        <v>0.493549218727</v>
+        <v>0.5180971902520001</v>
       </c>
       <c r="M93">
-        <v>0.371051980506</v>
+        <v>0.372127964185</v>
       </c>
       <c r="N93">
-        <v>0.8891126216740001</v>
+        <v>0.872055654118</v>
       </c>
       <c r="O93">
         <v>0.5882889932190001</v>
@@ -6764,19 +6764,19 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S93">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T93">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U93">
-        <v>0.64622308716</v>
+        <v>0.5876424504435001</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6814,10 +6814,10 @@
         <v>0</v>
       </c>
       <c r="L94">
-        <v>0.432047574939</v>
+        <v>0.421780012442</v>
       </c>
       <c r="M94">
-        <v>0.290736543708</v>
+        <v>0.291599178428</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -6829,19 +6829,19 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S94">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T94">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U94">
-        <v>0.2650054413612</v>
+        <v>0.32890556975725</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6879,10 +6879,10 @@
         <v>0</v>
       </c>
       <c r="L95">
-        <v>0.5077623879559999</v>
+        <v>0.44954141648</v>
       </c>
       <c r="M95">
-        <v>0.355457642839</v>
+        <v>0.356191476973</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -6894,19 +6894,19 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S95">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T95">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U95">
-        <v>0.2259468134002</v>
+        <v>0.26806173241475</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6944,10 +6944,10 @@
         <v>0</v>
       </c>
       <c r="L96">
-        <v>0.5077623879559999</v>
+        <v>0.44954141648</v>
       </c>
       <c r="M96">
-        <v>0.391766347336</v>
+        <v>0.392659693324</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -6959,19 +6959,19 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S96">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T96">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U96">
-        <v>0.2458421059526</v>
+        <v>0.29297072606875</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -7009,10 +7009,10 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <v>0.5077623879559999</v>
+        <v>0.44954141648</v>
       </c>
       <c r="M97">
-        <v>0.404977352446</v>
+        <v>0.4057879632549999</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -7024,19 +7024,19 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S97">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T97">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U97">
-        <v>0.2766769194394</v>
+        <v>0.3314935591325</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -7074,10 +7074,10 @@
         <v>0</v>
       </c>
       <c r="L98">
-        <v>0.5077623879559999</v>
+        <v>0.44954141648</v>
       </c>
       <c r="M98">
-        <v>0.428176845112</v>
+        <v>0.429080315113</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -7089,19 +7089,19 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S98">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T98">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U98">
-        <v>0.230412627397</v>
+        <v>0.2736864088775</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -7139,10 +7139,10 @@
         <v>0</v>
       </c>
       <c r="L99">
-        <v>0.5077623879559999</v>
+        <v>0.44954141648</v>
       </c>
       <c r="M99">
-        <v>0.330675097862</v>
+        <v>0.331351120464</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -7154,19 +7154,19 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S99">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T99">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U99">
-        <v>0.2065085717594</v>
+        <v>0.24374947748075</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -7204,10 +7204,10 @@
         <v>0</v>
       </c>
       <c r="L100">
-        <v>0.5077623879559999</v>
+        <v>0.44954141648</v>
       </c>
       <c r="M100">
-        <v>0.357607848732</v>
+        <v>0.358360593563</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -7219,19 +7219,19 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S100">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T100">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U100">
-        <v>0.2657066329748</v>
+        <v>0.31776623455725</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -7269,13 +7269,13 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>0.0784982863255</v>
+        <v>0.126516037454</v>
       </c>
       <c r="M101">
-        <v>0.402210478337</v>
+        <v>0.401953437156</v>
       </c>
       <c r="N101">
-        <v>0.004569423533270001</v>
+        <v>0.0278960859715</v>
       </c>
       <c r="O101">
         <v>0.341418883672</v>
@@ -7284,19 +7284,19 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S101">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T101">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U101">
-        <v>0.166253299080208</v>
+        <v>0.224446111063375</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -7334,10 +7334,10 @@
         <v>0</v>
       </c>
       <c r="L102">
-        <v>0.06525878345659999</v>
+        <v>0.08146222706930001</v>
       </c>
       <c r="M102">
-        <v>0.467552036689</v>
+        <v>0.467814955619</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -7349,19 +7349,19 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S102">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T102">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U102">
-        <v>0.22113634748112</v>
+        <v>0.280537024987075</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -7399,10 +7399,10 @@
         <v>0</v>
       </c>
       <c r="L103">
-        <v>0.5077623879559999</v>
+        <v>0.44954141648</v>
       </c>
       <c r="M103">
-        <v>0.416877850434</v>
+        <v>0.417738398557</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -7414,19 +7414,19 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S103">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T103">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U103">
-        <v>0.2134556950436</v>
+        <v>0.25247951296625</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -7464,13 +7464,13 @@
         <v>0</v>
       </c>
       <c r="L104">
-        <v>0.0784982863255</v>
+        <v>0.126516037454</v>
       </c>
       <c r="M104">
-        <v>0.527759066944</v>
+        <v>0.527776561128</v>
       </c>
       <c r="N104">
-        <v>0.009653732148760001</v>
+        <v>0.059057284998</v>
       </c>
       <c r="O104">
         <v>0.255001418518</v>
@@ -7479,19 +7479,19 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S104">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T104">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U104">
-        <v>0.176113247217004</v>
+        <v>0.2420878255245</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -7529,10 +7529,10 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <v>0.44196898565</v>
+        <v>0.46241002003</v>
       </c>
       <c r="M105">
-        <v>0.299626515869</v>
+        <v>0.300225867203</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -7544,19 +7544,19 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S105">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T105">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U105">
-        <v>0.2056691263862</v>
+        <v>0.26234650441125</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -7594,13 +7594,13 @@
         <v>0</v>
       </c>
       <c r="L106">
-        <v>0.473339722547</v>
+        <v>0.557871124295</v>
       </c>
       <c r="M106">
-        <v>0.479960408812</v>
+        <v>0.4812462325370001</v>
       </c>
       <c r="N106">
-        <v>0.261938098281</v>
+        <v>0.244931970588</v>
       </c>
       <c r="O106">
         <v>0.243754709326</v>
@@ -7609,19 +7609,19 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S106">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T106">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U106">
-        <v>0.3441862074494</v>
+        <v>0.3819510091865</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -7638,31 +7638,31 @@
         <v>0</v>
       </c>
       <c r="L107">
-        <v>0.473339722547</v>
+        <v>0.557871124295</v>
       </c>
       <c r="M107">
-        <v>0.500590968391</v>
+        <v>0.501907308064</v>
       </c>
       <c r="N107">
-        <v>0.98966489685</v>
+        <v>0.9682336443039999</v>
       </c>
       <c r="P107">
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S107">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T107">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U107">
-        <v>0.5906520969276</v>
+        <v>0.50700301916575</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -7700,10 +7700,10 @@
         <v>0</v>
       </c>
       <c r="L108">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M108">
-        <v>0.478416913667</v>
+        <v>0.479076068789</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -7715,19 +7715,19 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S108">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T108">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U108">
-        <v>0.2249135107326</v>
+        <v>0.30415570789675</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7765,13 +7765,13 @@
         <v>0</v>
       </c>
       <c r="L109">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M109">
-        <v>0.5038608576219999</v>
+        <v>0.5047461772339999</v>
       </c>
       <c r="N109">
-        <v>0.0042677308814</v>
+        <v>0.0266111026269</v>
       </c>
       <c r="O109">
         <v>0.50759835041</v>
@@ -7780,19 +7780,19 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S109">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T109">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U109">
-        <v>0.21929788793316</v>
+        <v>0.301711630735975</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7827,10 +7827,10 @@
         <v>0</v>
       </c>
       <c r="L110">
-        <v>0.376175583344</v>
+        <v>0.475278623579</v>
       </c>
       <c r="M110">
-        <v>0.403554025492</v>
+        <v>0.404366928311</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -7842,19 +7842,19 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S110">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T110">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U110">
-        <v>0.2275856365994</v>
+        <v>0.30946103151275</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7892,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="L111">
-        <v>0.473339722547</v>
+        <v>0.557871124295</v>
       </c>
       <c r="M111">
-        <v>0.414324285245</v>
+        <v>0.415390625024</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -7907,19 +7907,19 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S111">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T111">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U111">
-        <v>0.2560216357984</v>
+        <v>0.34142648012975</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7957,10 +7957,10 @@
         <v>0</v>
       </c>
       <c r="L112">
-        <v>0.44196898565</v>
+        <v>0.46241002003</v>
       </c>
       <c r="M112">
-        <v>0.345080464687</v>
+        <v>0.34583755382</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -7972,19 +7972,19 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S112">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T112">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U112">
-        <v>0.3293089038164</v>
+        <v>0.41693566064875</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -8022,10 +8022,10 @@
         <v>0</v>
       </c>
       <c r="L113">
-        <v>0.376175583344</v>
+        <v>0.475278623579</v>
       </c>
       <c r="M113">
-        <v>0.27928996654</v>
+        <v>0.279841877747</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -8037,19 +8037,19 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R113">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S113">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T113">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U113">
-        <v>0.230062854369</v>
+        <v>0.31249230582175</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -8066,31 +8066,31 @@
         <v>0</v>
       </c>
       <c r="L114">
-        <v>0.473339722547</v>
+        <v>0.557871124295</v>
       </c>
       <c r="M114">
-        <v>0.476502525427</v>
+        <v>0.477745062704</v>
       </c>
       <c r="N114">
-        <v>0.0136526665703</v>
+        <v>0.084876950019</v>
       </c>
       <c r="P114">
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R114">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S114">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T114">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U114">
-        <v>0.19542951622292</v>
+        <v>0.2801232842545</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -8128,10 +8128,10 @@
         <v>0</v>
       </c>
       <c r="L115">
-        <v>0.473339722547</v>
+        <v>0.557871124295</v>
       </c>
       <c r="M115">
-        <v>0.423958104992</v>
+        <v>0.425039529111</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -8143,19 +8143,19 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R115">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S115">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T115">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U115">
-        <v>0.245829182386</v>
+        <v>0.32868968444925</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -8190,10 +8190,10 @@
         <v>0</v>
       </c>
       <c r="L116">
-        <v>0.473339722547</v>
+        <v>0.557871124295</v>
       </c>
       <c r="M116">
-        <v>0.5516532478589999</v>
+        <v>0.553071093137</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -8205,19 +8205,19 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S116">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T116">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U116">
-        <v>0.2674225203548</v>
+        <v>0.3557654622</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -8234,10 +8234,10 @@
         <v>0</v>
       </c>
       <c r="L117">
-        <v>0.473339722547</v>
+        <v>0.557871124295</v>
       </c>
       <c r="M117">
-        <v>0.495338367203</v>
+        <v>0.496624843828</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -8246,19 +8246,19 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S117">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T117">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U117">
-        <v>0.19373561795</v>
+        <v>0.26362399203075</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -8275,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="L118">
-        <v>0.473339722547</v>
+        <v>0.557871124295</v>
       </c>
       <c r="M118">
-        <v>0.5290239219039999</v>
+        <v>0.530388978575</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -8287,19 +8287,19 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S118">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T118">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U118">
-        <v>0.2004727288902</v>
+        <v>0.2720650257175</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -8316,10 +8316,10 @@
         <v>0</v>
       </c>
       <c r="L119">
-        <v>0.473339722547</v>
+        <v>0.557871124295</v>
       </c>
       <c r="M119">
-        <v>0.5290239219039999</v>
+        <v>0.530388978575</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -8328,19 +8328,19 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S119">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T119">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U119">
-        <v>0.2004727288902</v>
+        <v>0.2720650257175</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -8354,10 +8354,10 @@
         <v>0</v>
       </c>
       <c r="L120">
-        <v>0.473339722547</v>
+        <v>0.557871124295</v>
       </c>
       <c r="M120">
-        <v>0.495338367203</v>
+        <v>0.496624843828</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -8366,19 +8366,19 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R120">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S120">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T120">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U120">
-        <v>0.19373561795</v>
+        <v>0.26362399203075</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -8392,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="L121">
-        <v>0.473339722547</v>
+        <v>0.557871124295</v>
       </c>
       <c r="M121">
-        <v>0.461652812034</v>
+        <v>0.462860708612</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -8404,19 +8404,19 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R121">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S121">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T121">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U121">
-        <v>0.1869985069162</v>
+        <v>0.25518295822675</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -8454,10 +8454,10 @@
         <v>0</v>
       </c>
       <c r="L122">
-        <v>0.7366698612739999</v>
+        <v>0.778935562147</v>
       </c>
       <c r="M122">
-        <v>0.384325767111</v>
+        <v>0.385280363715</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -8469,19 +8469,19 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S122">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T122">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U122">
-        <v>0.734143048473</v>
+        <v>0.6784838849604999</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -8516,10 +8516,10 @@
         <v>0</v>
       </c>
       <c r="L123">
-        <v>0.376175583344</v>
+        <v>0.475278623579</v>
       </c>
       <c r="M123">
-        <v>0.242682049</v>
+        <v>0.243141468338</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S123">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T123">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U123">
-        <v>0.2075830375104</v>
+        <v>0.28436941178125</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -8581,10 +8581,10 @@
         <v>0</v>
       </c>
       <c r="L124">
-        <v>0.376175583344</v>
+        <v>0.475278623579</v>
       </c>
       <c r="M124">
-        <v>0.249812029533</v>
+        <v>0.250305598988</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -8596,19 +8596,19 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S124">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T124">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U124">
-        <v>0.183951279686</v>
+        <v>0.25483825203</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -8646,13 +8646,13 @@
         <v>0</v>
       </c>
       <c r="L125">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M125">
-        <v>0.564599552215</v>
+        <v>0.56572314828</v>
       </c>
       <c r="N125">
-        <v>0.132391483443</v>
+        <v>0.125379101545</v>
       </c>
       <c r="O125">
         <v>0.409146235437</v>
@@ -8661,19 +8661,19 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S125">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T125">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U125">
-        <v>0.2630047048818001</v>
+        <v>0.31703484448375</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="L126">
-        <v>0.0784982863255</v>
+        <v>0.126516037454</v>
       </c>
       <c r="M126">
-        <v>0.515680103889</v>
+        <v>0.5157561007329999</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -8726,19 +8726,19 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S126">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T126">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U126">
-        <v>0.2478120051413</v>
+        <v>0.32178844341975</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8776,13 +8776,13 @@
         <v>0</v>
       </c>
       <c r="L127">
-        <v>0.06525878345659999</v>
+        <v>0.08146222706930001</v>
       </c>
       <c r="M127">
-        <v>0.391862084387</v>
+        <v>0.391876098303</v>
       </c>
       <c r="N127">
-        <v>0.009653732148760001</v>
+        <v>0.059057284998</v>
       </c>
       <c r="O127">
         <v>0.0961432794297</v>
@@ -8791,19 +8791,19 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S127">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T127">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U127">
-        <v>0.114514322314164</v>
+        <v>0.15713472245</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8820,31 +8820,31 @@
         <v>0</v>
       </c>
       <c r="L128">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M128">
-        <v>0.5791891892809999</v>
+        <v>0.580345548887</v>
       </c>
       <c r="N128">
-        <v>0.00639835235584</v>
+        <v>0.0397579801661</v>
       </c>
       <c r="P128">
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S128">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T128">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U128">
-        <v>0.133696132772736</v>
+        <v>0.196998605431525</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8861,31 +8861,31 @@
         <v>0</v>
       </c>
       <c r="L129">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M129">
-        <v>0.575356562751</v>
+        <v>0.5765039817890001</v>
       </c>
       <c r="N129">
-        <v>0.00352323560931</v>
+        <v>0.0217365165092</v>
       </c>
       <c r="P129">
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S129">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T129">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U129">
-        <v>0.131779560768124</v>
+        <v>0.1915328477428</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8923,13 +8923,13 @@
         <v>0</v>
       </c>
       <c r="L130">
-        <v>0.314282159238</v>
+        <v>0.418037727067</v>
       </c>
       <c r="M130">
-        <v>0.598465887916</v>
+        <v>0.599682838602</v>
       </c>
       <c r="N130">
-        <v>0.0269634755525</v>
+        <v>0.168937491521</v>
       </c>
       <c r="O130">
         <v>0.4089768111680001</v>
@@ -8938,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S130">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T130">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U130">
-        <v>0.2751303618854</v>
+        <v>0.3989087170895</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8988,10 +8988,10 @@
         <v>0</v>
       </c>
       <c r="L131">
-        <v>0.0784982863255</v>
+        <v>0.126516037454</v>
       </c>
       <c r="M131">
-        <v>0.525910562743</v>
+        <v>0.5260602743</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -9003,19 +9003,19 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S131">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T131">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U131">
-        <v>0.2568006066715</v>
+        <v>0.33304262401075</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -9032,10 +9032,10 @@
         <v>0</v>
       </c>
       <c r="L132">
-        <v>0.0784982863255</v>
+        <v>0.126516037454</v>
       </c>
       <c r="M132">
-        <v>0.7271195106939999</v>
+        <v>0.7276864103020001</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -9044,19 +9044,19 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S132">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T132">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U132">
-        <v>0.1611235594039</v>
+        <v>0.213550611939</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -9094,10 +9094,10 @@
         <v>0</v>
       </c>
       <c r="L133">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M133">
-        <v>0.474659760292</v>
+        <v>0.475546218167</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S133">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T133">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U133">
-        <v>0.1879575418094</v>
+        <v>0.258017572431</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -9156,13 +9156,13 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M134">
-        <v>0.570748528074</v>
+        <v>0.57188519771</v>
       </c>
       <c r="N134">
-        <v>0.186143674233</v>
+        <v>0.173235275881</v>
       </c>
       <c r="O134">
         <v>0.457311771866</v>
@@ -9171,19 +9171,19 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S134">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T134">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U134">
-        <v>0.2953684836554</v>
+        <v>0.3425807845325</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -9218,10 +9218,10 @@
         <v>0</v>
       </c>
       <c r="L135">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M135">
-        <v>0.569973119304</v>
+        <v>0.571107980104</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -9233,19 +9233,19 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S135">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T135">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U135">
-        <v>0.2207559322082</v>
+        <v>0.29907766116075</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -9283,13 +9283,13 @@
         <v>0</v>
       </c>
       <c r="L136">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M136">
-        <v>0.5821382927359999</v>
+        <v>0.583301531868</v>
       </c>
       <c r="N136">
-        <v>0.186143674233</v>
+        <v>0.173235275881</v>
       </c>
       <c r="O136">
         <v>0.4795035645970001</v>
@@ -9298,19 +9298,19 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R136">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S136">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T136">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U136">
-        <v>0.302084795134</v>
+        <v>0.35098281625475</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -9330,28 +9330,28 @@
         <v>1</v>
       </c>
       <c r="M137">
-        <v>0.400753415152</v>
+        <v>0.401673418232</v>
       </c>
       <c r="N137">
-        <v>0.0006293563967929999</v>
+        <v>0.00401946031608</v>
       </c>
       <c r="P137">
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S137">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T137">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U137">
-        <v>0.2804024255891172</v>
+        <v>0.35142321963702</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -9392,10 +9392,10 @@
         <v>1</v>
       </c>
       <c r="M138">
-        <v>0.317006724696</v>
+        <v>0.317694909937</v>
       </c>
       <c r="N138">
-        <v>0.000250123538141</v>
+        <v>0.00156686233582</v>
       </c>
       <c r="O138">
         <v>0.218553295079</v>
@@ -9404,19 +9404,19 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S138">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T138">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U138">
-        <v>0.3072120533702564</v>
+        <v>0.384453766837955</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -9454,10 +9454,10 @@
         <v>0</v>
       </c>
       <c r="L139">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M139">
-        <v>0.409261295373</v>
+        <v>0.409957732286</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -9469,19 +9469,19 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S139">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T139">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U139">
-        <v>0.1550945520954</v>
+        <v>0.216891330048</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="M140">
-        <v>0.317006724696</v>
+        <v>0.317694909937</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -9510,19 +9510,19 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S140">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T140">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U140">
-        <v>0.2634013449392</v>
+        <v>0.32942372748425</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -9563,10 +9563,10 @@
         <v>1</v>
       </c>
       <c r="M141">
-        <v>0.317006724696</v>
+        <v>0.317694909937</v>
       </c>
       <c r="N141">
-        <v>0.000151509587514</v>
+        <v>0.0007116437180630001</v>
       </c>
       <c r="O141">
         <v>0.0769866110242</v>
@@ -9575,19 +9575,19 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S141">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T141">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U141">
-        <v>0.2788592709790457</v>
+        <v>0.3488482911698157</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -9604,10 +9604,10 @@
         <v>0</v>
       </c>
       <c r="L142">
-        <v>0.688087791672</v>
+        <v>0.7376393117899999</v>
       </c>
       <c r="M142">
-        <v>0.234087613885</v>
+        <v>0.234528398952</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -9616,19 +9616,19 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S142">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T142">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U142">
-        <v>0.1844350811114</v>
+        <v>0.2430419276855</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9669,10 +9669,10 @@
         <v>1</v>
       </c>
       <c r="M143">
-        <v>0.23326003424</v>
+        <v>0.233716401642</v>
       </c>
       <c r="N143">
-        <v>0.000178121632669</v>
+        <v>0.00113009366178</v>
       </c>
       <c r="O143">
         <v>0.108363762824</v>
@@ -9681,19 +9681,19 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S143">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T143">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U143">
-        <v>0.2683960080658676</v>
+        <v>0.335802564531945</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="L144">
-        <v>0.776034774302</v>
+        <v>0.8340922807310001</v>
       </c>
       <c r="M144">
-        <v>0.317006724696</v>
+        <v>0.317666072091</v>
       </c>
       <c r="N144">
-        <v>0.00149945609426</v>
+        <v>0.00955237792208</v>
       </c>
       <c r="O144">
         <v>0.211519278112</v>
@@ -9746,19 +9746,19 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S144">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T144">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U144">
-        <v>0.261511937859704</v>
+        <v>0.3432075022140201</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9775,7 +9775,7 @@
         <v>1</v>
       </c>
       <c r="M145">
-        <v>0.23326003424</v>
+        <v>0.233716401642</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -9784,19 +9784,19 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S145">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T145">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U145">
-        <v>0.246652006848</v>
+        <v>0.3084291004105</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9834,10 +9834,10 @@
         <v>1</v>
       </c>
       <c r="M146">
-        <v>0.23326003424</v>
+        <v>0.233716401642</v>
       </c>
       <c r="N146">
-        <v>0.000224048965276</v>
+        <v>0.00119089337866</v>
       </c>
       <c r="O146">
         <v>0.0434707007477</v>
@@ -9846,19 +9846,19 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R146">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S146">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T146">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U146">
-        <v>0.2554357665836504</v>
+        <v>0.31959449894209</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9896,7 +9896,7 @@
         <v>1</v>
       </c>
       <c r="M147">
-        <v>0.23326003424</v>
+        <v>0.233716401642</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -9908,19 +9908,19 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S147">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T147">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U147">
-        <v>0.3082065191068</v>
+        <v>0.385372240734</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9940,7 +9940,7 @@
         <v>1</v>
       </c>
       <c r="M148">
-        <v>0.23326003424</v>
+        <v>0.233716401642</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -9949,19 +9949,19 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S148">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T148">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U148">
-        <v>0.246652006848</v>
+        <v>0.3084291004105</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9999,13 +9999,13 @@
         <v>0</v>
       </c>
       <c r="L149">
-        <v>0.776034774302</v>
+        <v>0.8340922807310001</v>
       </c>
       <c r="M149">
-        <v>0.236109590451</v>
+        <v>0.23657260516</v>
       </c>
       <c r="N149">
-        <v>0.000145510316616</v>
+        <v>0.000665491382872</v>
       </c>
       <c r="O149">
         <v>0.0867240479917</v>
@@ -10014,19 +10014,19 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R149">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S149">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T149">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U149">
-        <v>0.2198318866755864</v>
+        <v>0.289513606316393</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -10064,13 +10064,13 @@
         <v>0</v>
       </c>
       <c r="L150">
-        <v>0.776034774302</v>
+        <v>0.8340922807310001</v>
       </c>
       <c r="M150">
-        <v>0.379587498222</v>
+        <v>0.380392831043</v>
       </c>
       <c r="N150">
-        <v>0.0277258191731</v>
+        <v>0.08192456004380001</v>
       </c>
       <c r="O150">
         <v>0.232307424796</v>
@@ -10079,19 +10079,19 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S150">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T150">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U150">
-        <v>0.28867626713324</v>
+        <v>0.38217927415345</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -10108,10 +10108,10 @@
         <v>0</v>
       </c>
       <c r="L151">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M151">
-        <v>0.390719887331</v>
+        <v>0.391221523305</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -10120,19 +10120,19 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S151">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T151">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U151">
-        <v>0.0934429314404</v>
+        <v>0.1397781039945</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -10170,10 +10170,10 @@
         <v>0</v>
       </c>
       <c r="L152">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M152">
-        <v>0.390193544814</v>
+        <v>0.390764026144</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -10185,19 +10185,19 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R152">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S152">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T152">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U152">
-        <v>0.163564579995</v>
+        <v>0.22744737602675</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -10235,10 +10235,10 @@
         <v>0</v>
       </c>
       <c r="L153">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M153">
-        <v>0.391547027998</v>
+        <v>0.392120666669</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -10250,19 +10250,19 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R153">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S153">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T153">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U153">
-        <v>0.2031958226238</v>
+        <v>0.276987218648</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -10279,10 +10279,10 @@
         <v>0</v>
       </c>
       <c r="L154">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M154">
-        <v>0.390347996938</v>
+        <v>0.390848765383</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -10291,19 +10291,19 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R154">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S154">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T154">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U154">
-        <v>0.09336855336180001</v>
+        <v>0.139684914514</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -10320,10 +10320,10 @@
         <v>0</v>
       </c>
       <c r="L155">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M155">
-        <v>0.390719887331</v>
+        <v>0.391221523305</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -10332,19 +10332,19 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R155">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S155">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T155">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U155">
-        <v>0.0934429314404</v>
+        <v>0.1397781039945</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -10358,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="L156">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M156">
-        <v>0.390224033473</v>
+        <v>0.390724512743</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -10370,19 +10370,19 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R156">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S156">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T156">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U156">
-        <v>0.09334376066880001</v>
+        <v>0.139653851354</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -10420,10 +10420,10 @@
         <v>0</v>
       </c>
       <c r="L157">
-        <v>0.168264840161</v>
+        <v>0.120601317675</v>
       </c>
       <c r="M157">
-        <v>0.411048651707</v>
+        <v>0.411339340811</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -10435,19 +10435,19 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R157">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S157">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T157">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U157">
-        <v>0.18745752718</v>
+        <v>0.2224787006295</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -10485,13 +10485,13 @@
         <v>0</v>
       </c>
       <c r="L158">
-        <v>0.168264840161</v>
+        <v>0.120601317675</v>
       </c>
       <c r="M158">
-        <v>0.272714026165</v>
+        <v>0.272952042838</v>
       </c>
       <c r="N158">
-        <v>0.00892850069777</v>
+        <v>0.0547003487076</v>
       </c>
       <c r="O158">
         <v>0.13579280898</v>
@@ -10500,19 +10500,19 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R158">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S158">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T158">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U158">
-        <v>0.118925735340308</v>
+        <v>0.14601162955015</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -10529,10 +10529,10 @@
         <v>0</v>
       </c>
       <c r="L159">
-        <v>0.076494769871</v>
+        <v>0.167890892673</v>
       </c>
       <c r="M159">
-        <v>0.389976106544</v>
+        <v>0.390476007461</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -10541,19 +10541,19 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R159">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S159">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T159">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U159">
-        <v>0.09329417528300001</v>
+        <v>0.1395917250335</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10591,13 +10591,13 @@
         <v>0</v>
       </c>
       <c r="L160">
-        <v>0.552069548605</v>
+        <v>0.668184561462</v>
       </c>
       <c r="M160">
-        <v>0.406205233022</v>
+        <v>0.407051843186</v>
       </c>
       <c r="N160">
-        <v>0.00144971801656</v>
+        <v>0.00924225178509</v>
       </c>
       <c r="O160">
         <v>0.320161711007</v>
@@ -10606,19 +10606,19 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R160">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S160">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T160">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U160">
-        <v>0.256267185733424</v>
+        <v>0.3511600918600225</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10656,13 +10656,13 @@
         <v>0</v>
       </c>
       <c r="L161">
-        <v>0.41828997417</v>
+        <v>0.4364893900639999</v>
       </c>
       <c r="M161">
-        <v>0.2703411625</v>
+        <v>0.270757990789</v>
       </c>
       <c r="N161">
-        <v>0.00507891083543</v>
+        <v>0.0314133227652</v>
       </c>
       <c r="O161">
         <v>0.464689370793</v>
@@ -10671,19 +10671,19 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R161">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S161">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T161">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U161">
-        <v>0.232695665826772</v>
+        <v>0.3008375186028</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10721,13 +10721,13 @@
         <v>0</v>
       </c>
       <c r="L162">
-        <v>0.41828997417</v>
+        <v>0.4364893900639999</v>
       </c>
       <c r="M162">
-        <v>0.549503988167</v>
+        <v>0.550592009814</v>
       </c>
       <c r="N162">
-        <v>0.0200102437726</v>
+        <v>0.124935484213</v>
       </c>
       <c r="O162">
         <v>0.458265570182</v>
@@ -10736,19 +10736,19 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R162">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S162">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T162">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U162">
-        <v>0.29321600401284</v>
+        <v>0.39257061356825</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10768,28 +10768,28 @@
         <v>1</v>
       </c>
       <c r="M163">
-        <v>0.2338759243</v>
+        <v>0.23433372842</v>
       </c>
       <c r="N163">
-        <v>0.008818950432510001</v>
+        <v>0.0554490677373</v>
       </c>
       <c r="P163">
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R163">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S163">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T163">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U163">
-        <v>0.250302765033004</v>
+        <v>0.322445699039325</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -10809,7 +10809,7 @@
         <v>1</v>
       </c>
       <c r="M164">
-        <v>0.346698741923</v>
+        <v>0.347381700933</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -10818,19 +10818,19 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R164">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S164">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T164">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U164">
-        <v>0.2693397483846</v>
+        <v>0.33684542523325</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10868,10 +10868,10 @@
         <v>1</v>
       </c>
       <c r="M165">
-        <v>0.234491814359</v>
+        <v>0.234951055199</v>
       </c>
       <c r="N165">
-        <v>0.000195221056985</v>
+        <v>0.000933819225501</v>
       </c>
       <c r="O165">
         <v>0</v>
@@ -10880,19 +10880,19 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S165">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T165">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U165">
-        <v>0.246976451294594</v>
+        <v>0.3089712186061253</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10933,10 +10933,10 @@
         <v>1</v>
       </c>
       <c r="M166">
-        <v>0.23469944444</v>
+        <v>0.235115561591</v>
       </c>
       <c r="N166">
-        <v>0.000174246423231</v>
+        <v>0.0007984264709430001</v>
       </c>
       <c r="O166">
         <v>0.0557004578914</v>
@@ -10945,19 +10945,19 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S166">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T166">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U166">
-        <v>0.2581496790355724</v>
+        <v>0.3229036114883357</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10995,13 +10995,13 @@
         <v>0</v>
       </c>
       <c r="L167">
-        <v>0.776034774302</v>
+        <v>0.8340922807310001</v>
       </c>
       <c r="M167">
-        <v>0.234491814359</v>
+        <v>0.234925179421</v>
       </c>
       <c r="N167">
-        <v>2.1037240543e-06</v>
+        <v>1.10998607152e-05</v>
       </c>
       <c r="O167">
         <v>0.126789543847</v>
@@ -11010,19 +11010,19 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S167">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T167">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U167">
-        <v>0.2274640679912217</v>
+        <v>0.2989545259649288</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -11039,31 +11039,31 @@
         <v>0</v>
       </c>
       <c r="L168">
-        <v>0.0814043147857</v>
+        <v>0.134676995547</v>
       </c>
       <c r="M168">
-        <v>0.493409053706</v>
+        <v>0.494388530766</v>
       </c>
       <c r="N168">
-        <v>0.0334500004001</v>
+        <v>0.0988384346424</v>
       </c>
       <c r="P168">
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R168">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S168">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T168">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U168">
-        <v>0.12834267385838</v>
+        <v>0.18197599023885</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -11101,13 +11101,13 @@
         <v>0</v>
       </c>
       <c r="L169">
-        <v>0.552069548605</v>
+        <v>0.668184561462</v>
       </c>
       <c r="M169">
-        <v>0.355071691659</v>
+        <v>0.355781088112</v>
       </c>
       <c r="N169">
-        <v>0.000222878034901</v>
+        <v>0.00130488267986</v>
       </c>
       <c r="O169">
         <v>0.100471657103</v>
@@ -11116,19 +11116,19 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R169">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S169">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T169">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U169">
-        <v>0.2016117306873604</v>
+        <v>0.281435547339215</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -11166,13 +11166,13 @@
         <v>0</v>
       </c>
       <c r="L170">
-        <v>0.316736931695</v>
+        <v>0.401430778504</v>
       </c>
       <c r="M170">
-        <v>0.441009547353</v>
+        <v>0.4419089123899999</v>
       </c>
       <c r="N170">
-        <v>0.0149910199548</v>
+        <v>0.09262831434089999</v>
       </c>
       <c r="O170">
         <v>0.354742653452</v>
@@ -11181,19 +11181,19 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R170">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S170">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T170">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U170">
-        <v>0.22849423448192</v>
+        <v>0.322677664671725</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -11231,10 +11231,10 @@
         <v>0</v>
       </c>
       <c r="L171">
-        <v>0.0520192805877</v>
+        <v>0.0364084166846</v>
       </c>
       <c r="M171">
-        <v>0.5172668016950001</v>
+        <v>0.5178122402800001</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -11246,19 +11246,19 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R171">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S171">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T171">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U171">
-        <v>0.19146111143134</v>
+        <v>0.23556003295965</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="L172">
-        <v>0.0814043147857</v>
+        <v>0.134676995547</v>
       </c>
       <c r="M172">
-        <v>0.493409053706</v>
+        <v>0.494409592282</v>
       </c>
       <c r="N172">
-        <v>0.0149910199548</v>
+        <v>0.09262831434089999</v>
       </c>
       <c r="O172">
         <v>0.332116153712</v>
@@ -11311,19 +11311,19 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R172">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S172">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T172">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U172">
-        <v>0.18738231242266</v>
+        <v>0.263457763970475</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -11361,13 +11361,13 @@
         <v>0</v>
       </c>
       <c r="L173">
-        <v>0.0814043147857</v>
+        <v>0.134676995547</v>
       </c>
       <c r="M173">
-        <v>0.456929059782</v>
+        <v>0.45778131503</v>
       </c>
       <c r="N173">
-        <v>0.0104599999524</v>
+        <v>0.06455866623040001</v>
       </c>
       <c r="O173">
         <v>0.285399640642</v>
@@ -11376,19 +11376,19 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S173">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T173">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U173">
-        <v>0.1689306030229</v>
+        <v>0.23560415436235</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -11426,10 +11426,10 @@
         <v>0</v>
       </c>
       <c r="L174">
-        <v>0.0814043147857</v>
+        <v>0.134676995547</v>
       </c>
       <c r="M174">
-        <v>0.243479317065</v>
+        <v>0.243922567498</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -11441,19 +11441,19 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S174">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T174">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U174">
-        <v>0.20206388256794</v>
+        <v>0.2660088360085</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -11491,13 +11491,13 @@
         <v>0</v>
       </c>
       <c r="L175">
-        <v>0.271566431156</v>
+        <v>0.253656220616</v>
       </c>
       <c r="M175">
-        <v>0.408225403381</v>
+        <v>0.408900860528</v>
       </c>
       <c r="N175">
-        <v>0.303530874241</v>
+        <v>0.334214119988</v>
       </c>
       <c r="O175">
         <v>0.758991189938</v>
@@ -11506,19 +11506,19 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R175">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S175">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T175">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U175">
-        <v>0.4091689545914</v>
+        <v>0.4389405977675</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -11556,10 +11556,10 @@
         <v>0</v>
       </c>
       <c r="L176">
-        <v>0.552069548605</v>
+        <v>0.668184561462</v>
       </c>
       <c r="M176">
-        <v>0.451115958079</v>
+        <v>0.452007893491</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -11571,19 +11571,19 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R176">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S176">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T176">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U176">
-        <v>0.2563056807142</v>
+        <v>0.34963383796</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -11621,10 +11621,10 @@
         <v>0</v>
       </c>
       <c r="L177">
-        <v>0.552069548605</v>
+        <v>0.668184561462</v>
       </c>
       <c r="M177">
-        <v>0.5748130623650001</v>
+        <v>0.575973455228</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -11636,19 +11636,19 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S177">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T177">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U177">
-        <v>0.2549018221418</v>
+        <v>0.34794612910725</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -11668,7 +11668,7 @@
         <v>1</v>
       </c>
       <c r="M178">
-        <v>0.5719816036909999</v>
+        <v>0.573149051964</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -11677,19 +11677,19 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R178">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S178">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T178">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U178">
-        <v>0.3143963207382</v>
+        <v>0.393287262991</v>
       </c>
     </row>
     <row r="179" spans="1:21">
@@ -11724,13 +11724,13 @@
         <v>0</v>
       </c>
       <c r="L179">
-        <v>0.776034774302</v>
+        <v>0.8340922807310001</v>
       </c>
       <c r="M179">
-        <v>0.237020447322</v>
+        <v>0.237420174779</v>
       </c>
       <c r="N179">
-        <v>0.000116503028814</v>
+        <v>0.0007410223261830001</v>
       </c>
       <c r="O179">
         <v>0.09476612763</v>
@@ -11739,19 +11739,19 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R179">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S179">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T179">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U179">
-        <v>0.2216108710623256</v>
+        <v>0.2917549013665457</v>
       </c>
     </row>
     <row r="180" spans="1:21">
@@ -11789,13 +11789,13 @@
         <v>0</v>
       </c>
       <c r="L180">
-        <v>0.552069548605</v>
+        <v>0.668184561462</v>
       </c>
       <c r="M180">
-        <v>0.235358526449</v>
+        <v>0.235768037558</v>
       </c>
       <c r="N180">
-        <v>0.000222878034901</v>
+        <v>0.00130488267986</v>
       </c>
       <c r="O180">
         <v>0.04702080797539999</v>
@@ -11804,19 +11804,19 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S180">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T180">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U180">
-        <v>0.1669789278198404</v>
+        <v>0.238069572418815</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -11854,10 +11854,10 @@
         <v>0</v>
       </c>
       <c r="L181">
-        <v>0.306013938248</v>
+        <v>0.273382090998</v>
       </c>
       <c r="M181">
-        <v>0.512590603667</v>
+        <v>0.513446334401</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -11869,19 +11869,19 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S181">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T181">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U181">
-        <v>0.320517552445</v>
+        <v>0.39270291142725</v>
       </c>
     </row>
     <row r="182" spans="1:21">
@@ -11901,7 +11901,7 @@
         <v>1</v>
       </c>
       <c r="M182">
-        <v>0.573000065264</v>
+        <v>0.574169889355</v>
       </c>
       <c r="N182">
         <v>0</v>
@@ -11910,19 +11910,19 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R182">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S182">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T182">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U182">
-        <v>0.3146000130528001</v>
+        <v>0.39354247233875</v>
       </c>
     </row>
     <row r="183" spans="1:21">
@@ -11960,10 +11960,10 @@
         <v>1</v>
       </c>
       <c r="M183">
-        <v>0.405758637684</v>
+        <v>0.406538328995</v>
       </c>
       <c r="N183">
-        <v>0.000437545533433</v>
+        <v>0.00228694136523</v>
       </c>
       <c r="O183">
         <v>0.08433315945049999</v>
@@ -11972,19 +11972,19 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R183">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S183">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T183">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U183">
-        <v>0.2981933776402732</v>
+        <v>0.3732896074526825</v>
       </c>
     </row>
     <row r="184" spans="1:21">
@@ -12001,31 +12001,31 @@
         <v>0</v>
       </c>
       <c r="L184">
-        <v>0.776034774302</v>
+        <v>0.8340922807310001</v>
       </c>
       <c r="M184">
-        <v>0.57377842087</v>
+        <v>0.5749500606719999</v>
       </c>
       <c r="N184">
-        <v>0.0362364095791</v>
+        <v>0.225215878562</v>
       </c>
       <c r="P184">
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R184">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S184">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T184">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U184">
-        <v>0.28445720286604</v>
+        <v>0.40856455499125</v>
       </c>
     </row>
     <row r="185" spans="1:21">
@@ -12060,13 +12060,13 @@
         <v>0</v>
       </c>
       <c r="L185">
-        <v>0.0814043147857</v>
+        <v>0.134676995547</v>
       </c>
       <c r="M185">
-        <v>0.402127491614</v>
+        <v>0.402809785362</v>
       </c>
       <c r="N185">
-        <v>0.00979748210699</v>
+        <v>0.0605958943272</v>
       </c>
       <c r="O185">
         <v>0.444270561641</v>
@@ -12075,19 +12075,19 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R185">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S185">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T185">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U185">
-        <v>0.189479466450936</v>
+        <v>0.2605883092193</v>
       </c>
     </row>
     <row r="186" spans="1:21">
@@ -12104,10 +12104,10 @@
         <v>0</v>
       </c>
       <c r="L186">
-        <v>0.0814043147857</v>
+        <v>0.134676995547</v>
       </c>
       <c r="M186">
-        <v>0.401985195271</v>
+        <v>0.402667157077</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -12116,19 +12116,19 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R186">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S186">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T186">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U186">
-        <v>0.09667790201133999</v>
+        <v>0.134336038156</v>
       </c>
     </row>
     <row r="187" spans="1:21">
@@ -12166,13 +12166,13 @@
         <v>0</v>
       </c>
       <c r="L187">
-        <v>0.115851821878</v>
+        <v>0.154402865929</v>
       </c>
       <c r="M187">
-        <v>0.489970515412</v>
+        <v>0.490836663636</v>
       </c>
       <c r="N187">
-        <v>0.00979748210699</v>
+        <v>0.0605958943272</v>
       </c>
       <c r="O187">
         <v>0.360158099595</v>
@@ -12181,19 +12181,19 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R187">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S187">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T187">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U187">
-        <v>0.197115080219796</v>
+        <v>0.2664983808718</v>
       </c>
     </row>
     <row r="188" spans="1:21">
@@ -12231,10 +12231,10 @@
         <v>0</v>
       </c>
       <c r="L188">
-        <v>0.552069548605</v>
+        <v>0.668184561462</v>
       </c>
       <c r="M188">
-        <v>0.3595588835320001</v>
+        <v>0.360305151782</v>
       </c>
       <c r="N188">
         <v>0</v>
@@ -12246,19 +12246,19 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S188">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T188">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U188">
-        <v>0.1898374235166</v>
+        <v>0.2665120996725</v>
       </c>
     </row>
     <row r="189" spans="1:21">
@@ -12275,31 +12275,31 @@
         <v>0</v>
       </c>
       <c r="L189">
-        <v>0.552069548605</v>
+        <v>0.668184561462</v>
       </c>
       <c r="M189">
-        <v>0.569478576183</v>
+        <v>0.570640185513</v>
       </c>
       <c r="N189">
-        <v>0.0244792000264</v>
+        <v>0.153717102058</v>
       </c>
       <c r="P189">
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R189">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S189">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T189">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U189">
-        <v>0.23410130496816</v>
+        <v>0.34813546225825</v>
       </c>
     </row>
     <row r="190" spans="1:21">
@@ -12337,13 +12337,13 @@
         <v>0</v>
       </c>
       <c r="L190">
-        <v>0.3347375831</v>
+        <v>0.4373392475399999</v>
       </c>
       <c r="M190">
-        <v>0.535437724914</v>
+        <v>0.536563083083</v>
       </c>
       <c r="N190">
-        <v>0.009818860102290002</v>
+        <v>0.0615689488393</v>
       </c>
       <c r="O190">
         <v>0.285551788095</v>
@@ -12352,19 +12352,19 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S190">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T190">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U190">
-        <v>0.235072963262716</v>
+        <v>0.330255766889325</v>
       </c>
     </row>
     <row r="191" spans="1:21">
@@ -12402,13 +12402,13 @@
         <v>0</v>
       </c>
       <c r="L191">
-        <v>0.552069548605</v>
+        <v>0.668184561462</v>
       </c>
       <c r="M191">
-        <v>0.569800491527</v>
+        <v>0.570962851806</v>
       </c>
       <c r="N191">
-        <v>0.0244792000264</v>
+        <v>0.153717102058</v>
       </c>
       <c r="O191">
         <v>0.0636332021308</v>
@@ -12417,19 +12417,19 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S191">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T191">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U191">
-        <v>0.24689232846312</v>
+        <v>0.3641244293642</v>
       </c>
     </row>
     <row r="192" spans="1:21">
@@ -12467,13 +12467,13 @@
         <v>0</v>
       </c>
       <c r="L192">
-        <v>0.15029932897</v>
+        <v>0.174128736311</v>
       </c>
       <c r="M192">
-        <v>0.5019528010450001</v>
+        <v>0.502804777939</v>
       </c>
       <c r="N192">
-        <v>0.305749081637</v>
+        <v>0.335309505505</v>
       </c>
       <c r="O192">
         <v>0.394409667884</v>
@@ -12482,19 +12482,19 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R192">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S192">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T192">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U192">
-        <v>0.3316319922346</v>
+        <v>0.35166317190975</v>
       </c>
     </row>
     <row r="193" spans="1:21">
@@ -12532,13 +12532,13 @@
         <v>0</v>
       </c>
       <c r="L193">
-        <v>0.237573552535</v>
+        <v>0.250734563468</v>
       </c>
       <c r="M193">
-        <v>0.317044032185</v>
+        <v>0.317733479814</v>
       </c>
       <c r="N193">
-        <v>0.305749081637</v>
+        <v>0.335309505505</v>
       </c>
       <c r="O193">
         <v>0.46804903495</v>
@@ -12547,19 +12547,19 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R193">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S193">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T193">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U193">
-        <v>0.3268329565888</v>
+        <v>0.34295664593425</v>
       </c>
     </row>
     <row r="194" spans="1:21">
@@ -12597,13 +12597,13 @@
         <v>0</v>
       </c>
       <c r="L194">
-        <v>0.3347375831</v>
+        <v>0.4373392475399999</v>
       </c>
       <c r="M194">
-        <v>0.395222479163</v>
+        <v>0.396020749933</v>
       </c>
       <c r="N194">
-        <v>0.00110937729729</v>
+        <v>0.00725939054885</v>
       </c>
       <c r="O194">
         <v>0.672839506173</v>
@@ -12612,19 +12612,19 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R194">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S194">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T194">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U194">
-        <v>0.281003664606116</v>
+        <v>0.3783647235487125</v>
       </c>
     </row>
     <row r="195" spans="1:21">
@@ -12662,13 +12662,13 @@
         <v>0</v>
       </c>
       <c r="L195">
-        <v>0.15029932897</v>
+        <v>0.174128736311</v>
       </c>
       <c r="M195">
-        <v>0.395222479163</v>
+        <v>0.395893739159</v>
       </c>
       <c r="N195">
-        <v>0.00739229788978</v>
+        <v>0.04576388173880001</v>
       </c>
       <c r="O195">
         <v>0.397198002832</v>
@@ -12677,19 +12677,19 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R195">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S195">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T195">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U195">
-        <v>0.191500881348912</v>
+        <v>0.2532460900102</v>
       </c>
     </row>
     <row r="196" spans="1:21">
@@ -12727,13 +12727,13 @@
         <v>0</v>
       </c>
       <c r="L196">
-        <v>0.117405617595</v>
+        <v>0.206493933619</v>
       </c>
       <c r="M196">
-        <v>0.27115047117</v>
+        <v>0.271815318749</v>
       </c>
       <c r="N196">
-        <v>0.00422603668775</v>
+        <v>0.0268787178177</v>
       </c>
       <c r="O196">
         <v>0.534040663736</v>
@@ -12742,19 +12742,19 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S196">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T196">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U196">
-        <v>0.1862097651753</v>
+        <v>0.259807158480425</v>
       </c>
     </row>
     <row r="197" spans="1:21">
@@ -12792,13 +12792,13 @@
         <v>0</v>
       </c>
       <c r="L197">
-        <v>0.117405617595</v>
+        <v>0.206493933619</v>
       </c>
       <c r="M197">
-        <v>0.290537133241</v>
+        <v>0.291189084169</v>
       </c>
       <c r="N197">
-        <v>0.306625824286</v>
+        <v>0.334887936165</v>
       </c>
       <c r="O197">
         <v>0.666194699058</v>
@@ -12807,19 +12807,19 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R197">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S197">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T197">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U197">
-        <v>0.3374778196932</v>
+        <v>0.37469141325275</v>
       </c>
     </row>
     <row r="198" spans="1:21">
@@ -12857,10 +12857,10 @@
         <v>0</v>
       </c>
       <c r="L198">
-        <v>0.200958008665</v>
+        <v>0.205644076142</v>
       </c>
       <c r="M198">
-        <v>0.395222479163</v>
+        <v>0.396046376333</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -12872,19 +12872,19 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R198">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S198">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T198">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U198">
-        <v>0.3071350136962</v>
+        <v>0.385296258282</v>
       </c>
     </row>
     <row r="199" spans="1:21">
@@ -12922,13 +12922,13 @@
         <v>0</v>
       </c>
       <c r="L199">
-        <v>0.284510399735</v>
+        <v>0.204794218666</v>
       </c>
       <c r="M199">
-        <v>0.0530657378828</v>
+        <v>0.05300381170160001</v>
       </c>
       <c r="N199">
-        <v>0.00494084978579</v>
+        <v>0.0305785386495</v>
       </c>
       <c r="O199">
         <v>0.76684489654</v>
@@ -12937,19 +12937,19 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R199">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S199">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T199">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U199">
-        <v>0.222860546745876</v>
+        <v>0.263805366389275</v>
       </c>
     </row>
     <row r="200" spans="1:21">
@@ -12987,13 +12987,13 @@
         <v>0</v>
       </c>
       <c r="L200">
-        <v>0.178133626324</v>
+        <v>0.179250882635</v>
       </c>
       <c r="M200">
-        <v>0.121234024131</v>
+        <v>0.121527855415</v>
       </c>
       <c r="N200">
-        <v>0.000427035081318</v>
+        <v>0.00244340306575</v>
       </c>
       <c r="O200">
         <v>0.215916599485</v>
@@ -13002,19 +13002,19 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S200">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T200">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U200">
-        <v>0.1032276640205272</v>
+        <v>0.1297846851501875</v>
       </c>
     </row>
     <row r="201" spans="1:21">
@@ -13052,13 +13052,13 @@
         <v>0</v>
       </c>
       <c r="L201">
-        <v>0.0945812352544</v>
+        <v>0.180100740111</v>
       </c>
       <c r="M201">
-        <v>0.178174452672</v>
+        <v>0.178654984425</v>
       </c>
       <c r="N201">
-        <v>0.00110937729729</v>
+        <v>0.00725939054885</v>
       </c>
       <c r="O201">
         <v>0.779751347592</v>
@@ -13067,19 +13067,19 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S201">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T201">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U201">
-        <v>0.210945158022596</v>
+        <v>0.2864416156692125</v>
       </c>
     </row>
     <row r="202" spans="1:21">
@@ -13117,13 +13117,13 @@
         <v>0</v>
       </c>
       <c r="L202">
-        <v>0.284510399735</v>
+        <v>0.204794218666</v>
       </c>
       <c r="M202">
-        <v>0.126711828888</v>
+        <v>0.126886748576</v>
       </c>
       <c r="N202">
-        <v>0.0007287660661639999</v>
+        <v>0.00458177349988</v>
       </c>
       <c r="O202">
         <v>0.6776212832549999</v>
@@ -13132,19 +13132,19 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R202">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S202">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T202">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U202">
-        <v>0.2180602088020656</v>
+        <v>0.25347100599922</v>
       </c>
     </row>
     <row r="203" spans="1:21">
@@ -13182,13 +13182,13 @@
         <v>0</v>
       </c>
       <c r="L203">
-        <v>0.284510399735</v>
+        <v>0.204794218666</v>
       </c>
       <c r="M203">
-        <v>0.135749974451</v>
+        <v>0.135872308826</v>
       </c>
       <c r="N203">
-        <v>0.377338454502</v>
+        <v>0.403698663504</v>
       </c>
       <c r="O203">
         <v>0.625</v>
@@ -13197,19 +13197,19 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R203">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S203">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T203">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U203">
-        <v>0.359987456638</v>
+        <v>0.342341297749</v>
       </c>
     </row>
     <row r="204" spans="1:21">
@@ -13247,10 +13247,10 @@
         <v>0</v>
       </c>
       <c r="L204">
-        <v>0.15029932897</v>
+        <v>0.174128736311</v>
       </c>
       <c r="M204">
-        <v>0.138528786324</v>
+        <v>0.138648440546</v>
       </c>
       <c r="N204">
         <v>0</v>
@@ -13262,19 +13262,19 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R204">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S204">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T204">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U204">
-        <v>0.137660423963</v>
+        <v>0.1780627953445</v>
       </c>
     </row>
     <row r="205" spans="1:21">
@@ -13309,13 +13309,13 @@
         <v>0</v>
       </c>
       <c r="L205">
-        <v>0.15029932897</v>
+        <v>0.174128736311</v>
       </c>
       <c r="M205">
-        <v>0.22096636338</v>
+        <v>0.221278324028</v>
       </c>
       <c r="N205">
-        <v>0.00739229788978</v>
+        <v>0.04576388173880001</v>
       </c>
       <c r="O205">
         <v>0.855503390715</v>
@@ -13324,19 +13324,19 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R205">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S205">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T205">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U205">
-        <v>0.248310735768912</v>
+        <v>0.3241685831982</v>
       </c>
     </row>
     <row r="206" spans="1:21">
@@ -13374,13 +13374,13 @@
         <v>0</v>
       </c>
       <c r="L206">
-        <v>0.0892349821886</v>
+        <v>0.156210900356</v>
       </c>
       <c r="M206">
-        <v>0.105268681958</v>
+        <v>0.105517880422</v>
       </c>
       <c r="N206">
-        <v>0.00484134765188</v>
+        <v>0.0299594174152</v>
       </c>
       <c r="O206">
         <v>0.319544188861</v>
@@ -13389,19 +13389,19 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R206">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S206">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T206">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U206">
-        <v>0.104746109662272</v>
+        <v>0.15280809676355</v>
       </c>
     </row>
     <row r="207" spans="1:21">
@@ -13439,13 +13439,13 @@
         <v>0</v>
       </c>
       <c r="L207">
-        <v>0.15029932897</v>
+        <v>0.174128736311</v>
       </c>
       <c r="M207">
-        <v>0.178564595379</v>
+        <v>0.178853582696</v>
       </c>
       <c r="N207">
-        <v>0.279687822734</v>
+        <v>0.278935344984</v>
       </c>
       <c r="O207">
         <v>0.5968209542149999</v>
@@ -13454,19 +13454,19 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S207">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T207">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U207">
-        <v>0.2970121048064</v>
+        <v>0.3071846545515</v>
       </c>
     </row>
     <row r="208" spans="1:21">
@@ -13504,13 +13504,13 @@
         <v>0</v>
       </c>
       <c r="L208">
-        <v>0.117405617595</v>
+        <v>0.206493933619</v>
       </c>
       <c r="M208">
-        <v>0.103285889709</v>
+        <v>0.103709709375</v>
       </c>
       <c r="N208">
-        <v>0.000261220746196</v>
+        <v>0.00161981855123</v>
       </c>
       <c r="O208">
         <v>0.411707746479</v>
@@ -13519,19 +13519,19 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R208">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S208">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T208">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U208">
-        <v>0.1265843390550784</v>
+        <v>0.1808828020060575</v>
       </c>
     </row>
     <row r="209" spans="1:21">
@@ -13569,13 +13569,13 @@
         <v>0</v>
       </c>
       <c r="L209">
-        <v>0.0587028087976</v>
+        <v>0.147251982379</v>
       </c>
       <c r="M209">
-        <v>0.113284418846</v>
+        <v>0.113720056861</v>
       </c>
       <c r="N209">
-        <v>0.00449075141404</v>
+        <v>0.0285675918679</v>
       </c>
       <c r="O209">
         <v>0.483264746228</v>
@@ -13584,19 +13584,19 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R209">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S209">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T209">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U209">
-        <v>0.132846695339936</v>
+        <v>0.193201094333975</v>
       </c>
     </row>
     <row r="210" spans="1:21">
@@ -13634,10 +13634,10 @@
         <v>0</v>
       </c>
       <c r="L210">
-        <v>0.0587028087976</v>
+        <v>0.147251982379</v>
       </c>
       <c r="M210">
-        <v>0.111185545567</v>
+        <v>0.111663977242</v>
       </c>
       <c r="N210">
         <v>0</v>
@@ -13649,19 +13649,19 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R210">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S210">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T210">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U210">
-        <v>0.13713654179392</v>
+        <v>0.1936775785565</v>
       </c>
     </row>
     <row r="211" spans="1:21">
@@ -13699,13 +13699,13 @@
         <v>0</v>
       </c>
       <c r="L211">
-        <v>0.178133626324</v>
+        <v>0.179250882635</v>
       </c>
       <c r="M211">
-        <v>0.145410540168</v>
+        <v>0.145785404569</v>
       </c>
       <c r="N211">
-        <v>0.004178218059300001</v>
+        <v>0.0254529361217</v>
       </c>
       <c r="O211">
         <v>0.167611582425</v>
@@ -13714,19 +13714,19 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R211">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S211">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T211">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U211">
-        <v>0.09990243700712001</v>
+        <v>0.129525201437675</v>
       </c>
     </row>
     <row r="212" spans="1:21">
@@ -13764,13 +13764,13 @@
         <v>0</v>
       </c>
       <c r="L212">
-        <v>0</v>
+        <v>0.0880100311395</v>
       </c>
       <c r="M212">
-        <v>0.125046123324</v>
+        <v>0.125642066152</v>
       </c>
       <c r="N212">
-        <v>0.017026811441</v>
+        <v>0.106051830378</v>
       </c>
       <c r="O212">
         <v>0.646164642174</v>
@@ -13779,19 +13779,19 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S212">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T212">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U212">
-        <v>0.161052877676</v>
+        <v>0.241467142460875</v>
       </c>
     </row>
     <row r="213" spans="1:21">
@@ -13829,13 +13829,13 @@
         <v>0</v>
       </c>
       <c r="L213">
-        <v>0.297897174564</v>
+        <v>0.387449035246</v>
       </c>
       <c r="M213">
-        <v>0.121599244058</v>
+        <v>0.122140632003</v>
       </c>
       <c r="N213">
-        <v>0.000261220746196</v>
+        <v>0.00161981855123</v>
       </c>
       <c r="O213">
         <v>0.463382575977</v>
@@ -13844,19 +13844,19 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S213">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T213">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U213">
-        <v>0.1766802872182784</v>
+        <v>0.2436480154443075</v>
       </c>
     </row>
     <row r="214" spans="1:21">
@@ -13873,10 +13873,10 @@
         <v>0</v>
       </c>
       <c r="L214">
-        <v>0.117405617595</v>
+        <v>0.206493933619</v>
       </c>
       <c r="M214">
-        <v>0.05347298246809999</v>
+        <v>0.0538344277483</v>
       </c>
       <c r="N214">
         <v>0</v>
@@ -13885,19 +13885,19 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S214">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T214">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U214">
-        <v>0.03417572001262</v>
+        <v>0.06508209034182501</v>
       </c>
     </row>
     <row r="215" spans="1:21">
@@ -13914,31 +13914,31 @@
         <v>0</v>
       </c>
       <c r="L215">
-        <v>0.0717568529136</v>
+        <v>0.153707546604</v>
       </c>
       <c r="M215">
-        <v>0.240347658335</v>
+        <v>0.241107034857</v>
       </c>
       <c r="N215">
-        <v>0.00298694640564</v>
+        <v>0.0186994411947</v>
       </c>
       <c r="P215">
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S215">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T215">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U215">
-        <v>0.06361568081197601</v>
+        <v>0.103378505663925</v>
       </c>
     </row>
     <row r="216" spans="1:21">
@@ -13955,31 +13955,31 @@
         <v>0</v>
       </c>
       <c r="L216">
-        <v>0.0717568529136</v>
+        <v>0.153707546604</v>
       </c>
       <c r="M216">
-        <v>0.256841598598</v>
+        <v>0.257639451393</v>
       </c>
       <c r="N216">
-        <v>0.0380853773083</v>
+        <v>0.112535098083</v>
       </c>
       <c r="P216">
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S216">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T216">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U216">
-        <v>0.08095384122564001</v>
+        <v>0.13097052402</v>
       </c>
     </row>
     <row r="217" spans="1:21">
@@ -13996,31 +13996,31 @@
         <v>0</v>
       </c>
       <c r="L217">
-        <v>0.0717568529136</v>
+        <v>0.153707546604</v>
       </c>
       <c r="M217">
-        <v>0.256841598598</v>
+        <v>0.257639451393</v>
       </c>
       <c r="N217">
-        <v>0.0040989552723</v>
+        <v>0.0256197862494</v>
       </c>
       <c r="P217">
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R217">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S217">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T217">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U217">
-        <v>0.06735927241124</v>
+        <v>0.1092416960616</v>
       </c>
     </row>
     <row r="218" spans="1:21">
@@ -14058,13 +14058,13 @@
         <v>0</v>
       </c>
       <c r="L218">
-        <v>0.0717568529136</v>
+        <v>0.153707546604</v>
       </c>
       <c r="M218">
-        <v>0.237307279257</v>
+        <v>0.238033117572</v>
       </c>
       <c r="N218">
-        <v>0.0050913115003</v>
+        <v>0.0318478273887</v>
       </c>
       <c r="O218">
         <v>0.5533447599170001</v>
@@ -14073,19 +14073,19 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R218">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S218">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T218">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U218">
-        <v>0.17451830301764</v>
+        <v>0.244233312870425</v>
       </c>
     </row>
     <row r="219" spans="1:21">
@@ -14099,31 +14099,31 @@
         <v>0</v>
       </c>
       <c r="L219">
-        <v>0.0717568529136</v>
+        <v>0.153707546604</v>
       </c>
       <c r="M219">
-        <v>0.22096636338</v>
+        <v>0.221667219901</v>
       </c>
       <c r="N219">
-        <v>0.0223060864691</v>
+        <v>0.137612519277</v>
       </c>
       <c r="P219">
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R219">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S219">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T219">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U219">
-        <v>0.06746707784636001</v>
+        <v>0.1282468214455</v>
       </c>
     </row>
     <row r="220" spans="1:21">
@@ -14161,13 +14161,13 @@
         <v>0</v>
       </c>
       <c r="L220">
-        <v>0.0717568529136</v>
+        <v>0.153707546604</v>
       </c>
       <c r="M220">
-        <v>0.252452924528</v>
+        <v>0.253203844395</v>
       </c>
       <c r="N220">
-        <v>0.333031012032</v>
+        <v>0.324776713311</v>
       </c>
       <c r="O220">
         <v>0.620590721854</v>
@@ -14176,19 +14176,19 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S220">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T220">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U220">
-        <v>0.32217250467192</v>
+        <v>0.338069706541</v>
       </c>
     </row>
     <row r="221" spans="1:21">
@@ -14226,13 +14226,13 @@
         <v>0</v>
       </c>
       <c r="L221">
-        <v>0.388142953048</v>
+        <v>0.47792658606</v>
       </c>
       <c r="M221">
-        <v>0.165135236409</v>
+        <v>0.165705852756</v>
       </c>
       <c r="N221">
-        <v>0.0170245494209</v>
+        <v>0.104775427165</v>
       </c>
       <c r="O221">
         <v>0.314708553102</v>
@@ -14241,19 +14241,19 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S221">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T221">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U221">
-        <v>0.18040716828016</v>
+        <v>0.26577910477075</v>
       </c>
     </row>
     <row r="222" spans="1:21">
@@ -14291,13 +14291,13 @@
         <v>0</v>
       </c>
       <c r="L222">
-        <v>0.255902660231</v>
+        <v>0.274750823373</v>
       </c>
       <c r="M222">
-        <v>0.0908376591451</v>
+        <v>0.09142176205420001</v>
       </c>
       <c r="N222">
-        <v>0.00280689499962</v>
+        <v>0.0170424968628</v>
       </c>
       <c r="O222">
         <v>0.292203727415</v>
@@ -14306,19 +14306,19 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S222">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T222">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U222">
-        <v>0.128911567358068</v>
+        <v>0.16885470242625</v>
       </c>
     </row>
     <row r="223" spans="1:21">
@@ -14356,13 +14356,13 @@
         <v>0</v>
       </c>
       <c r="L223">
-        <v>0.114922376185</v>
+        <v>0.181901523565</v>
       </c>
       <c r="M223">
-        <v>0.132782552311</v>
+        <v>0.133346792184</v>
       </c>
       <c r="N223">
-        <v>0.0127291954752</v>
+        <v>0.07899190942010001</v>
       </c>
       <c r="O223">
         <v>0.46235622297</v>
@@ -14371,19 +14371,19 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S223">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T223">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U223">
-        <v>0.14710390848328</v>
+        <v>0.214149112034775</v>
       </c>
     </row>
     <row r="224" spans="1:21">
@@ -14421,10 +14421,10 @@
         <v>0</v>
       </c>
       <c r="L224">
-        <v>0.704529053183</v>
+        <v>0.802145625517</v>
       </c>
       <c r="M224">
-        <v>0.112092299596</v>
+        <v>0.112606616294</v>
       </c>
       <c r="N224">
         <v>0</v>
@@ -14436,19 +14436,19 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R224">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S224">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T224">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U224">
-        <v>0.242927817765</v>
+        <v>0.32819249446425</v>
       </c>
     </row>
     <row r="225" spans="1:21">
@@ -14486,10 +14486,10 @@
         <v>0</v>
       </c>
       <c r="L225">
-        <v>0.704529053183</v>
+        <v>0.802145625517</v>
       </c>
       <c r="M225">
-        <v>0.0486797057759</v>
+        <v>0.0490254859765</v>
       </c>
       <c r="N225">
         <v>0</v>
@@ -14501,19 +14501,19 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R225">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S225">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T225">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U225">
-        <v>0.23807582122898</v>
+        <v>0.322085364669875</v>
       </c>
     </row>
     <row r="226" spans="1:21">
@@ -14551,13 +14551,13 @@
         <v>0</v>
       </c>
       <c r="L226">
-        <v>0.704529053183</v>
+        <v>0.802145625517</v>
       </c>
       <c r="M226">
-        <v>0.0486797057759</v>
+        <v>0.0490123784318</v>
       </c>
       <c r="N226">
-        <v>0.00151609685325</v>
+        <v>0.009315932039059999</v>
       </c>
       <c r="O226">
         <v>0.278768909755</v>
@@ -14566,19 +14566,19 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R226">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S226">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T226">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U226">
-        <v>0.20700197248408</v>
+        <v>0.284810711435715</v>
       </c>
     </row>
     <row r="227" spans="1:21">
@@ -14616,13 +14616,13 @@
         <v>0</v>
       </c>
       <c r="L227">
-        <v>0.511805320462</v>
+        <v>0.461491615606</v>
       </c>
       <c r="M227">
-        <v>0.111752414651</v>
+        <v>0.112403506501</v>
       </c>
       <c r="N227">
-        <v>0.00241410621914</v>
+        <v>0.008898746412919999</v>
       </c>
       <c r="O227">
         <v>0.6689844453930001</v>
@@ -14631,19 +14631,19 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S227">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T227">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U227">
-        <v>0.259474078588856</v>
+        <v>0.31294457847823</v>
       </c>
     </row>
     <row r="228" spans="1:21">
@@ -14660,31 +14660,31 @@
         <v>0</v>
       </c>
       <c r="L228">
-        <v>0.704529053183</v>
+        <v>0.802145625517</v>
       </c>
       <c r="M228">
-        <v>0.0438864290837</v>
+        <v>0.04424163839840001</v>
       </c>
       <c r="N228">
-        <v>0.00151609685325</v>
+        <v>0.009315932039059999</v>
       </c>
       <c r="P228">
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R228">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S228">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T228">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U228">
-        <v>0.15028953519464</v>
+        <v>0.213925798988615</v>
       </c>
     </row>
     <row r="229" spans="1:21">
@@ -14722,10 +14722,10 @@
         <v>0</v>
       </c>
       <c r="L229">
-        <v>0.704529053183</v>
+        <v>0.802145625517</v>
       </c>
       <c r="M229">
-        <v>0.0438864290837</v>
+        <v>0.0442530728395</v>
       </c>
       <c r="N229">
         <v>0</v>
@@ -14737,19 +14737,19 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R229">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S229">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T229">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U229">
-        <v>0.24705746612814</v>
+        <v>0.333317636682625</v>
       </c>
     </row>
     <row r="230" spans="1:21">
@@ -14787,13 +14787,13 @@
         <v>0</v>
       </c>
       <c r="L230">
-        <v>0.704529053183</v>
+        <v>0.802145625517</v>
       </c>
       <c r="M230">
-        <v>0.211379809995</v>
+        <v>0.212137174276</v>
       </c>
       <c r="N230">
-        <v>0.013838777072</v>
+        <v>0.08498712693600001</v>
       </c>
       <c r="O230">
         <v>0.4199559496900001</v>
@@ -14802,19 +14802,19 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R230">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S230">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T230">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U230">
-        <v>0.2727084734024</v>
+        <v>0.37980646910475</v>
       </c>
     </row>
     <row r="231" spans="1:21">
@@ -14852,13 +14852,13 @@
         <v>0</v>
       </c>
       <c r="L231">
-        <v>0.22984475237</v>
+        <v>0.27579301599</v>
       </c>
       <c r="M231">
-        <v>0.134909855513</v>
+        <v>0.135374663809</v>
       </c>
       <c r="N231">
-        <v>0.341560240027</v>
+        <v>0.349125882016</v>
       </c>
       <c r="O231">
         <v>0.467549780539</v>
@@ -14867,19 +14867,19 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S231">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T231">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U231">
-        <v>0.3030849736952</v>
+        <v>0.3069608355885</v>
       </c>
     </row>
     <row r="232" spans="1:21">
@@ -14917,10 +14917,10 @@
         <v>0</v>
       </c>
       <c r="L232">
-        <v>0.704529053183</v>
+        <v>0.802145625517</v>
       </c>
       <c r="M232">
-        <v>0.167157442191</v>
+        <v>0.167856344195</v>
       </c>
       <c r="N232">
         <v>0</v>
@@ -14932,19 +14932,19 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R232">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S232">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T232">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U232">
-        <v>0.2567616117548</v>
+        <v>0.345530883278</v>
       </c>
     </row>
     <row r="233" spans="1:21">
@@ -14982,10 +14982,10 @@
         <v>0</v>
       </c>
       <c r="L233">
-        <v>0.704529053183</v>
+        <v>0.802145625517</v>
       </c>
       <c r="M233">
-        <v>0.216682181563</v>
+        <v>0.217498453217</v>
       </c>
       <c r="N233">
         <v>0</v>
@@ -14997,19 +14997,19 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R233">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S233">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T233">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U233">
-        <v>0.2565861871336</v>
+        <v>0.345340944914</v>
       </c>
     </row>
     <row r="234" spans="1:21">
@@ -15047,13 +15047,13 @@
         <v>0</v>
       </c>
       <c r="L234">
-        <v>0.608167186822</v>
+        <v>0.631818620562</v>
       </c>
       <c r="M234">
-        <v>0.289465932292</v>
+        <v>0.290462774699</v>
       </c>
       <c r="N234">
-        <v>0.013838777072</v>
+        <v>0.08498712693600001</v>
       </c>
       <c r="O234">
         <v>0.266819209308</v>
@@ -15062,19 +15062,19 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R234">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S234">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T234">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U234">
-        <v>0.2384259765132</v>
+        <v>0.31852193287625</v>
       </c>
     </row>
     <row r="235" spans="1:21">
@@ -15112,13 +15112,13 @@
         <v>0</v>
       </c>
       <c r="L235">
-        <v>0.22984475237</v>
+        <v>0.27579301599</v>
       </c>
       <c r="M235">
-        <v>0.0438864290837</v>
+        <v>0.04412125759449999</v>
       </c>
       <c r="N235">
-        <v>0.724234878489</v>
+        <v>0.778430608362</v>
       </c>
       <c r="O235">
         <v>0.667130354141</v>
@@ -15127,19 +15127,19 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S235">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T235">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U235">
-        <v>0.47786625851454</v>
+        <v>0.4413688090218749</v>
       </c>
     </row>
     <row r="236" spans="1:21">
@@ -15177,13 +15177,13 @@
         <v>0</v>
       </c>
       <c r="L236">
-        <v>0.434244488994</v>
+        <v>0.439264960769</v>
       </c>
       <c r="M236">
         <v>0</v>
       </c>
       <c r="N236">
-        <v>0.306429097548</v>
+        <v>0.346435878632</v>
       </c>
       <c r="O236">
         <v>0.530777256129</v>
@@ -15192,19 +15192,19 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S236">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T236">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U236">
-        <v>0.3155759880438</v>
+        <v>0.3291195238825</v>
       </c>
     </row>
     <row r="237" spans="1:21">
@@ -15242,10 +15242,10 @@
         <v>0</v>
       </c>
       <c r="L237">
-        <v>0.370825036416</v>
+        <v>0.368642315798</v>
       </c>
       <c r="M237">
-        <v>0.0438864290837</v>
+        <v>0.04418362956419999</v>
       </c>
       <c r="N237">
         <v>0</v>
@@ -15257,19 +15257,19 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S237">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T237">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U237">
-        <v>0.18565323467534</v>
+        <v>0.2315951633098</v>
       </c>
     </row>
     <row r="238" spans="1:21">
@@ -15286,31 +15286,31 @@
         <v>0</v>
       </c>
       <c r="L238">
-        <v>0.22984475237</v>
+        <v>0.27579301599</v>
       </c>
       <c r="M238">
-        <v>0.0438864290837</v>
+        <v>0.04412125759449999</v>
       </c>
       <c r="N238">
-        <v>0.0144539384026</v>
+        <v>0.08967731293349999</v>
       </c>
       <c r="P238">
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S238">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T238">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U238">
-        <v>0.06052781165178</v>
+        <v>0.1023978966295</v>
       </c>
     </row>
     <row r="239" spans="1:21">
@@ -15348,13 +15348,13 @@
         <v>0</v>
       </c>
       <c r="L239">
-        <v>0.370825036416</v>
+        <v>0.368642315798</v>
       </c>
       <c r="M239">
-        <v>0.0484042761161</v>
+        <v>0.0486928689777</v>
       </c>
       <c r="N239">
-        <v>0.00137187437554</v>
+        <v>0.00884097006092</v>
       </c>
       <c r="O239">
         <v>0.636963343849</v>
@@ -15363,19 +15363,19 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S239">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T239">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U239">
-        <v>0.211787281026436</v>
+        <v>0.265784874671405</v>
       </c>
     </row>
     <row r="240" spans="1:21">
@@ -15413,13 +15413,13 @@
         <v>0</v>
       </c>
       <c r="L240">
-        <v>0.511805320462</v>
+        <v>0.461491615606</v>
       </c>
       <c r="M240">
-        <v>0.155548683025</v>
+        <v>0.156290732681</v>
       </c>
       <c r="N240">
-        <v>0.0139788504198</v>
+        <v>0.085852905494</v>
       </c>
       <c r="O240">
         <v>0.281764041036</v>
@@ -15428,19 +15428,19 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R240">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S240">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T240">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U240">
-        <v>0.19541514907252</v>
+        <v>0.24634982370425</v>
       </c>
     </row>
     <row r="241" spans="1:21">
@@ -15457,10 +15457,10 @@
         <v>0</v>
       </c>
       <c r="L241">
-        <v>0.0717568529136</v>
+        <v>0.153707546604</v>
       </c>
       <c r="M241">
-        <v>0.183836205343</v>
+        <v>0.184513044676</v>
       </c>
       <c r="N241">
         <v>0</v>
@@ -15469,19 +15469,19 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R241">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S241">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T241">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U241">
-        <v>0.05111861165132</v>
+        <v>0.08455514782</v>
       </c>
     </row>
     <row r="242" spans="1:21">
@@ -15519,13 +15519,13 @@
         <v>0</v>
       </c>
       <c r="L242">
-        <v>0.291781086688</v>
+        <v>0.307599581105</v>
       </c>
       <c r="M242">
-        <v>0.338485612661</v>
+        <v>0.339597522157</v>
       </c>
       <c r="N242">
-        <v>0.00196015729166</v>
+        <v>0.007225424684979999</v>
       </c>
       <c r="O242">
         <v>0.300123891497</v>
@@ -15534,19 +15534,19 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R242">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S242">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T242">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U242">
-        <v>0.186862181085864</v>
+        <v>0.238636604860995</v>
       </c>
     </row>
     <row r="243" spans="1:21">
@@ -15584,13 +15584,13 @@
         <v>0</v>
       </c>
       <c r="L243">
-        <v>0.511805320462</v>
+        <v>0.461491615606</v>
       </c>
       <c r="M243">
-        <v>0.0797942625779</v>
+        <v>0.0803758992352</v>
       </c>
       <c r="N243">
-        <v>0.000134803754342</v>
+        <v>0.0007609664196980001</v>
       </c>
       <c r="O243">
         <v>0.321348795527</v>
@@ -15599,19 +15599,19 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R243">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S243">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T243">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U243">
-        <v>0.1826435972151168</v>
+        <v>0.2159943191969745</v>
       </c>
     </row>
     <row r="244" spans="1:21">
@@ -15649,13 +15649,13 @@
         <v>0</v>
       </c>
       <c r="L244">
-        <v>0.511805320462</v>
+        <v>0.461491615606</v>
       </c>
       <c r="M244">
-        <v>0.0480741293681</v>
+        <v>0.0485897191976</v>
       </c>
       <c r="N244">
-        <v>0.0009458311884960001</v>
+        <v>0.0058610730013</v>
       </c>
       <c r="O244">
         <v>0.268741141198</v>
@@ -15664,19 +15664,19 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R244">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S244">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T244">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U244">
-        <v>0.1661024506810184</v>
+        <v>0.196170887250725</v>
       </c>
     </row>
     <row r="245" spans="1:21">
@@ -15714,13 +15714,13 @@
         <v>0</v>
       </c>
       <c r="L245">
-        <v>0.511805320462</v>
+        <v>0.461491615606</v>
       </c>
       <c r="M245">
-        <v>0.0438864290837</v>
+        <v>0.0444049632961</v>
       </c>
       <c r="N245">
-        <v>0.00492895167064</v>
+        <v>0.0308186415314</v>
       </c>
       <c r="O245">
         <v>0.185246044166</v>
@@ -15729,19 +15729,19 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R245">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S245">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T245">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U245">
-        <v>0.150159139410596</v>
+        <v>0.180490316149875</v>
       </c>
     </row>
     <row r="246" spans="1:21">
@@ -15779,10 +15779,10 @@
         <v>0</v>
       </c>
       <c r="L246">
-        <v>0.511805320462</v>
+        <v>0.461491615606</v>
       </c>
       <c r="M246">
-        <v>0.212044493248</v>
+        <v>0.212960723299</v>
       </c>
       <c r="N246">
         <v>0</v>
@@ -15794,19 +15794,19 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R246">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S246">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T246">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U246">
-        <v>0.2337701366248</v>
+        <v>0.27986330207975</v>
       </c>
     </row>
     <row r="247" spans="1:21">
@@ -15844,13 +15844,13 @@
         <v>0</v>
       </c>
       <c r="L247">
-        <v>0.511805320462</v>
+        <v>0.461491615606</v>
       </c>
       <c r="M247">
-        <v>0.159828899025</v>
+        <v>0.160626618116</v>
       </c>
       <c r="N247">
-        <v>0.00262963072549</v>
+        <v>0.016393873266</v>
       </c>
       <c r="O247">
         <v>0.230941720281</v>
@@ -15859,19 +15859,19 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R247">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S247">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T247">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U247">
-        <v>0.181567040243796</v>
+        <v>0.21736345681725</v>
       </c>
     </row>
     <row r="248" spans="1:21">
@@ -15909,13 +15909,13 @@
         <v>0</v>
       </c>
       <c r="L248">
-        <v>0.511805320462</v>
+        <v>0.461491615606</v>
       </c>
       <c r="M248">
-        <v>0.128297802793</v>
+        <v>0.129030887376</v>
       </c>
       <c r="N248">
-        <v>0.00576877930131</v>
+        <v>0.0357286703994</v>
       </c>
       <c r="O248">
         <v>0.213615023474</v>
@@ -15924,19 +15924,19 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R248">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S248">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T248">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U248">
-        <v>0.173051141066324</v>
+        <v>0.20996654921385</v>
       </c>
     </row>
     <row r="249" spans="1:21">
@@ -15974,13 +15974,13 @@
         <v>0</v>
       </c>
       <c r="L249">
-        <v>0.511805320462</v>
+        <v>0.461491615606</v>
       </c>
       <c r="M249">
-        <v>0.155048528414</v>
+        <v>0.155792646289</v>
       </c>
       <c r="N249">
-        <v>0.0259305434473</v>
+        <v>0.1590719414</v>
       </c>
       <c r="O249">
         <v>0.164884367936</v>
@@ -15989,19 +15989,19 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R249">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S249">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T249">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U249">
-        <v>0.17671986074132</v>
+        <v>0.23531014280775</v>
       </c>
     </row>
     <row r="250" spans="1:21">
@@ -16039,13 +16039,13 @@
         <v>0</v>
       </c>
       <c r="L250">
-        <v>0.555859634791</v>
+        <v>0.512120081787</v>
       </c>
       <c r="M250">
-        <v>0.0112269425529</v>
+        <v>0.0113784981407</v>
       </c>
       <c r="N250">
-        <v>0.625239381467</v>
+        <v>0.656843109226</v>
       </c>
       <c r="O250">
         <v>0.271097780096</v>
@@ -16054,19 +16054,19 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R250">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="S250">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="T250">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U250">
-        <v>0.41773262407478</v>
+        <v>0.362859867312425</v>
       </c>
     </row>
   </sheetData>
